--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -1720,20 +1720,6 @@
   <dxfs count="45">
     <dxf>
       <font>
-        <sz val="7"/>
-        <name val="Cutive Mono"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1748,6 +1734,7 @@
         <name val="Cutive Mono"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2176,6 +2163,20 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="7"/>
+        <name val="Cutive Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4306,55 +4307,55 @@
     <tableColumn id="23" name="End Point of Reach [km]" dataDxfId="19" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="0"/>
-    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="18" dataCellStyle="Percent">
+    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="18"/>
+    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="17" dataCellStyle="Note">
+    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="16" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="16" dataCellStyle="Note">
+    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="15" dataCellStyle="Note">
       <calculatedColumnFormula>(Table1[[#This Row],[Tp]]-AN2)*3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Time Cell" dataDxfId="15" dataCellStyle="Note">
+    <tableColumn id="27" name="Time Cell" dataDxfId="14" dataCellStyle="Note">
       <calculatedColumnFormula>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="End Spatial Cell" dataDxfId="14" dataCellStyle="Note">
+    <tableColumn id="37" name="End Spatial Cell" dataDxfId="13" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="13" dataCellStyle="Note">
+    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="12" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Delta T" dataDxfId="12" dataCellStyle="Note">
+    <tableColumn id="28" name="Delta T" dataDxfId="11" dataCellStyle="Note">
       <calculatedColumnFormula>Delta_T__seconds</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Error Ti" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="29" name="Error Ti" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="Error Tp" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="30" name="Error Tp" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="Error Tt" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="31" name="Error Tt" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column1" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="32" name="Column1" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="Vi" dataDxfId="7" dataCellStyle="Note">
+    <tableColumn id="33" name="Vi" dataDxfId="6" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="delta Tp" dataDxfId="6" dataCellStyle="Note">
+    <tableColumn id="34" name="delta Tp" dataDxfId="5" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Column2" dataDxfId="5" dataCellStyle="Note"/>
-    <tableColumn id="36" name="Column3" dataDxfId="4" dataCellStyle="Note">
+    <tableColumn id="35" name="Column2" dataDxfId="4" dataCellStyle="Note"/>
+    <tableColumn id="36" name="Column3" dataDxfId="3" dataCellStyle="Note">
       <calculatedColumnFormula>'Reach Propertise'!$F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" name="Column4" dataDxfId="3" dataCellStyle="Note"/>
-    <tableColumn id="41" name="X cells for evaluation and comparison with obsered" dataDxfId="2" dataCellStyle="Note">
+    <tableColumn id="40" name="Column4" dataDxfId="2" dataCellStyle="Note"/>
+    <tableColumn id="41" name="X cells for evaluation and comparison with obsered" dataDxfId="1" dataCellStyle="Note">
       <calculatedColumnFormula>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" name="Observed Concentration [ppm] using formula2" dataDxfId="1" dataCellStyle="Note">
+    <tableColumn id="42" name="Observed Concentration [ppm] using formula2" dataDxfId="0" dataCellStyle="Note">
       <calculatedColumnFormula>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4697,7 +4698,7 @@
       </c>
       <c r="B2" s="50" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>seo_paper_02_severn.xlsx</v>
+        <v>watum_development_mode.xlsx</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -7055,9 +7056,9 @@
   </sheetPr>
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1:AO8"/>
+      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -759,7 +759,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,6 +972,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,7 +1403,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1461,9 +1467,6 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="37" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1655,12 +1658,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1668,6 +1665,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,10 +1750,15 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1763,10 +1780,15 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1784,6 +1806,50 @@
         <name val="Cutive Mono"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="7"/>
+        <name val="Cutive Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cutive Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2138,45 +2204,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cutive Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="7"/>
-        <name val="Cutive Mono"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4307,48 +4334,48 @@
     <tableColumn id="23" name="End Point of Reach [km]" dataDxfId="19" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="18"/>
-    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="3"/>
+    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="4" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="16" dataCellStyle="Note">
+    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="18" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="15" dataCellStyle="Note">
+    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="17" dataCellStyle="Note">
       <calculatedColumnFormula>(Table1[[#This Row],[Tp]]-AN2)*3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Time Cell" dataDxfId="14" dataCellStyle="Note">
+    <tableColumn id="27" name="Time Cell" dataDxfId="16" dataCellStyle="Note">
       <calculatedColumnFormula>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="End Spatial Cell" dataDxfId="13" dataCellStyle="Note">
+    <tableColumn id="37" name="End Spatial Cell" dataDxfId="15" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="12" dataCellStyle="Note">
+    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="14" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Delta T" dataDxfId="11" dataCellStyle="Note">
+    <tableColumn id="28" name="Delta T" dataDxfId="13" dataCellStyle="Note">
       <calculatedColumnFormula>Delta_T__seconds</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Error Ti" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="29" name="Error Ti" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="Error Tp" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="30" name="Error Tp" dataDxfId="11" dataCellStyle="Percent">
       <calculatedColumnFormula>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="Error Tt" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="31" name="Error Tt" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column1" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="32" name="Column1" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="Vi" dataDxfId="6" dataCellStyle="Note">
+    <tableColumn id="33" name="Vi" dataDxfId="8" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="delta Tp" dataDxfId="5" dataCellStyle="Note">
+    <tableColumn id="34" name="delta Tp" dataDxfId="7" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Column2" dataDxfId="4" dataCellStyle="Note"/>
-    <tableColumn id="36" name="Column3" dataDxfId="3" dataCellStyle="Note">
+    <tableColumn id="35" name="Column2" dataDxfId="6" dataCellStyle="Note"/>
+    <tableColumn id="36" name="Column3" dataDxfId="5" dataCellStyle="Note">
       <calculatedColumnFormula>'Reach Propertise'!$F2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="40" name="Column4" dataDxfId="2" dataCellStyle="Note"/>
@@ -4662,13 +4689,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="56" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="49"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4696,7 +4723,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="49" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>watum_development_mode.xlsx</v>
       </c>
@@ -4727,7 +4754,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="89">
+      <c r="B3" s="88">
         <f>DATE(2019,1,10)</f>
         <v>43475</v>
       </c>
@@ -4758,7 +4785,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
@@ -4788,7 +4815,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5"/>
@@ -4818,7 +4845,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="51" t="str">
+      <c r="B6" s="50" t="str">
         <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
         <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\</v>
       </c>
@@ -4847,7 +4874,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="52"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4875,7 +4902,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="49"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -4903,7 +4930,7 @@
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="52">
         <v>1000</v>
       </c>
       <c r="C9" s="5"/>
@@ -4933,7 +4960,7 @@
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
       <c r="C10" s="5"/>
@@ -4963,7 +4990,7 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>103</v>
       </c>
       <c r="C11" s="5"/>
@@ -4993,7 +5020,7 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="52">
         <v>50</v>
       </c>
       <c r="C12" s="5"/>
@@ -5023,7 +5050,7 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="54">
         <v>0</v>
       </c>
       <c r="C13" s="5"/>
@@ -5053,7 +5080,7 @@
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="52">
         <v>0.5</v>
       </c>
       <c r="C14" s="5"/>
@@ -5081,7 +5108,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="52"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5107,7 +5134,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="52"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5133,7 +5160,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="52"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5159,7 +5186,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="52"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -5185,7 +5212,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="52"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5211,7 +5238,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5237,7 +5264,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="52"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -5263,7 +5290,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="52"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -5289,7 +5316,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="52"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5315,7 +5342,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="52"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -5341,7 +5368,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="52"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5367,7 +5394,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="52"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -5393,7 +5420,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="52"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -5419,7 +5446,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="52"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -5445,7 +5472,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="52"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -5471,7 +5498,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="52"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -5497,7 +5524,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="52"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -5523,7 +5550,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="52"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -5549,7 +5576,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="52"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -5575,7 +5602,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="52"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -5601,7 +5628,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="52"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -5627,7 +5654,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="52"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -5653,7 +5680,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="52"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -5679,7 +5706,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="52"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -5705,7 +5732,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="52"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -5731,7 +5758,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="52"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -5757,7 +5784,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="52"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -5783,7 +5810,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="52"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -5809,7 +5836,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="52"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -5835,7 +5862,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
-      <c r="B44" s="52"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -5861,7 +5888,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -5887,7 +5914,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="52"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -5913,7 +5940,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
-      <c r="B47" s="52"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -5939,7 +5966,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="52"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -5965,7 +5992,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="52"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -5991,7 +6018,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="52"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -6017,7 +6044,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="52"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -6043,7 +6070,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="52"/>
+      <c r="B52" s="51"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -6069,7 +6096,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
-      <c r="B53" s="52"/>
+      <c r="B53" s="51"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -6095,7 +6122,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
-      <c r="B54" s="52"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -6121,7 +6148,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
-      <c r="B55" s="52"/>
+      <c r="B55" s="51"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -6147,7 +6174,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="52"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -6173,7 +6200,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="52"/>
+      <c r="B57" s="51"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -6199,7 +6226,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="52"/>
+      <c r="B58" s="51"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6225,7 +6252,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="52"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -6251,7 +6278,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="52"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -6277,7 +6304,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
-      <c r="B61" s="52"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -6303,7 +6330,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="52"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -6329,7 +6356,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
-      <c r="B63" s="52"/>
+      <c r="B63" s="51"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -7056,53 +7083,53 @@
   </sheetPr>
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomLeft" activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="63" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="63" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="63" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="63" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" style="63" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="63" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="63" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="63" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="63" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" style="63" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="63" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="63" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="63"/>
-    <col min="21" max="21" width="21.42578125" style="63" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" style="63" customWidth="1"/>
-    <col min="23" max="23" width="29.42578125" style="63" customWidth="1"/>
-    <col min="24" max="24" width="41.140625" style="64" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="65" customWidth="1"/>
-    <col min="26" max="27" width="19.42578125" style="63" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="63" customWidth="1"/>
-    <col min="29" max="30" width="12.140625" style="63" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="63" customWidth="1"/>
-    <col min="32" max="34" width="12.28515625" style="63" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" style="63" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="63"/>
-    <col min="37" max="37" width="12.28515625" style="63" customWidth="1"/>
-    <col min="38" max="39" width="11.140625" style="63" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="63"/>
-    <col min="41" max="41" width="30.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.5703125" style="63" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="23.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="62" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="62" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="62" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="62" customWidth="1"/>
+    <col min="11" max="12" width="19.140625" style="62" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="62" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="62" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="62" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="62" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" style="62" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="62" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" style="62" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="62"/>
+    <col min="21" max="21" width="21.42578125" style="62" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="62" customWidth="1"/>
+    <col min="23" max="23" width="29.42578125" style="62" customWidth="1"/>
+    <col min="24" max="24" width="41.140625" style="63" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" style="64" customWidth="1"/>
+    <col min="26" max="27" width="19.42578125" style="62" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="62" customWidth="1"/>
+    <col min="29" max="30" width="12.140625" style="62" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" style="62" customWidth="1"/>
+    <col min="32" max="34" width="12.28515625" style="62" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" style="62" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="62"/>
+    <col min="37" max="37" width="12.28515625" style="62" customWidth="1"/>
+    <col min="38" max="39" width="11.140625" style="62" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="62"/>
+    <col min="41" max="41" width="30.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="67" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="66" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7172,7 +7199,7 @@
       <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="98" t="s">
         <v>116</v>
       </c>
       <c r="Y1" s="17" t="s">
@@ -7220,1014 +7247,1014 @@
       <c r="AM1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="66" t="s">
+      <c r="AN1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="97" t="s">
+      <c r="AO1" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="97" t="s">
+      <c r="AP1" s="101" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="76" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:42" s="75" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="71">
         <v>0</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="71">
         <v>1210</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="71">
         <v>7.33</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="71">
         <f>(1/5)*(0.3)*1000/3600</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="F2" s="72">
+      <c r="F2" s="71">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="71">
         <f>(1/5)*(2.35)*1000/3600</f>
         <v>0.13055555555555556</v>
       </c>
-      <c r="H2" s="72">
+      <c r="H2" s="71">
         <v>7.33</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73">
+      <c r="I2" s="71"/>
+      <c r="J2" s="72">
         <f>142.8/10000</f>
         <v>1.4280000000000001E-2</v>
       </c>
-      <c r="K2" s="73">
+      <c r="K2" s="72">
         <v>0.46241399999999999</v>
       </c>
-      <c r="L2" s="73">
+      <c r="L2" s="72">
         <v>17.486969999999999</v>
       </c>
-      <c r="M2" s="73">
+      <c r="M2" s="72">
         <v>1.0510314000000001</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75">
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="74">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.90648043593010741</v>
       </c>
-      <c r="R2" s="76">
+      <c r="R2" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.37078694452598909</v>
       </c>
-      <c r="S2" s="76">
+      <c r="S2" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>4.0349473122582369</v>
       </c>
-      <c r="T2" s="76">
+      <c r="T2" s="75">
         <v>1</v>
       </c>
-      <c r="U2" s="76">
+      <c r="U2" s="75">
         <v>0</v>
       </c>
-      <c r="V2" s="76">
+      <c r="V2" s="75">
         <v>0</v>
       </c>
-      <c r="W2" s="76">
+      <c r="W2" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>1.21</v>
       </c>
-      <c r="X2" s="73">
+      <c r="X2" s="99">
         <v>1.0510314000000001</v>
       </c>
-      <c r="Y2" s="77" t="str">
+      <c r="Y2" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z2" s="76">
+      <c r="Z2" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>1210</v>
       </c>
-      <c r="AA2" s="76">
+      <c r="AA2" s="75">
         <f>(Table1[[#This Row],[Tp]]-AN2)*3600</f>
         <v>299.88</v>
       </c>
-      <c r="AB2" s="78">
+      <c r="AB2" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>59</v>
       </c>
-      <c r="AC2" s="78">
+      <c r="AC2" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>1.21</v>
       </c>
-      <c r="AD2" s="78">
+      <c r="AD2" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="76">
+      <c r="AE2" s="75">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF2" s="77">
+      <c r="AF2" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>-21.247216671559347</v>
       </c>
-      <c r="AG2" s="77">
+      <c r="AG2" s="76">
         <f>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</f>
         <v>-3.4512238238414059</v>
       </c>
-      <c r="AH2" s="77">
+      <c r="AH2" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>-1.8400702133905547</v>
       </c>
-      <c r="AI2" s="79">
+      <c r="AI2" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>37.816696726310191</v>
       </c>
-      <c r="AJ2" s="76">
+      <c r="AJ2" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>8086.2197455799997</v>
       </c>
-      <c r="AK2" s="76">
+      <c r="AK2" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL2" s="76">
+      <c r="AL2" s="75">
         <v>0</v>
       </c>
-      <c r="AM2" s="76">
+      <c r="AM2" s="75">
         <f>'Reach Propertise'!$F2</f>
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AN2" s="76">
+      <c r="AN2" s="75">
         <v>0</v>
       </c>
-      <c r="AO2" s="96">
+      <c r="AO2" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>1</v>
       </c>
-      <c r="AP2" s="96">
+      <c r="AP2" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="71">
         <f>C2</f>
         <v>1210</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="71">
         <v>2175</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="71">
         <v>7.03</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="71">
         <f>1.25*1000/3600</f>
         <v>0.34722222222222221</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="71">
         <v>0.43330000000000002</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="71">
         <f>5.15*1000/3600</f>
         <v>1.4305555555555556</v>
       </c>
-      <c r="H3" s="72">
+      <c r="H3" s="71">
         <v>7.03</v>
       </c>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73">
+      <c r="I3" s="71"/>
+      <c r="J3" s="72">
         <f>51.81/10000</f>
         <v>5.1809999999999998E-3</v>
       </c>
-      <c r="K3" s="73">
+      <c r="K3" s="72">
         <v>0.38552900000000001</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="72">
         <v>17.581569999999999</v>
       </c>
-      <c r="M3" s="73">
+      <c r="M3" s="72">
         <v>0.22527449999999999</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="75">
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>1.0371477250592951</v>
       </c>
-      <c r="R3" s="76">
+      <c r="R3" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.25845455674140388</v>
       </c>
-      <c r="S3" s="76">
+      <c r="S3" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>1.394338026002</v>
       </c>
-      <c r="T3" s="76">
+      <c r="T3" s="75">
         <v>1</v>
       </c>
-      <c r="U3" s="76">
+      <c r="U3" s="75">
         <v>0</v>
       </c>
-      <c r="V3" s="76">
+      <c r="V3" s="75">
         <v>0</v>
       </c>
-      <c r="W3" s="76">
+      <c r="W3" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>2.1749999999999998</v>
       </c>
-      <c r="X3" s="73">
+      <c r="X3" s="99">
         <v>0.22527449999999999</v>
       </c>
-      <c r="Y3" s="77" t="str">
+      <c r="Y3" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="Z3" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>965</v>
       </c>
-      <c r="AA3" s="76">
+      <c r="AA3" s="75">
         <f>(Table1[[#This Row],[Tp]]-AN3)*3600</f>
         <v>-2040.12</v>
       </c>
-      <c r="AB3" s="78">
+      <c r="AB3" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>311</v>
       </c>
-      <c r="AC3" s="78">
+      <c r="AC3" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>2.1749999999999998</v>
       </c>
-      <c r="AD3" s="78">
+      <c r="AD3" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>1.21</v>
       </c>
-      <c r="AE3" s="76">
+      <c r="AE3" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF3" s="77">
+      <c r="AF3" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.25565087658475677</v>
       </c>
-      <c r="AG3" s="77">
+      <c r="AG3" s="76">
         <f>(('Reach Propertise'!$F3-'Reach Propertise'!$R3)/'Reach Propertise'!$F3)</f>
         <v>0.40352052448325898</v>
       </c>
-      <c r="AH3" s="77">
+      <c r="AH3" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.81933273703513521</v>
       </c>
-      <c r="AI3" s="79">
+      <c r="AI3" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>45.603754840751279</v>
       </c>
-      <c r="AJ3" s="76">
+      <c r="AJ3" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>6778.20510053</v>
       </c>
-      <c r="AK3" s="76">
+      <c r="AK3" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>-0.56669999999999998</v>
       </c>
-      <c r="AL3" s="76">
+      <c r="AL3" s="75">
         <v>1</v>
       </c>
-      <c r="AM3" s="76">
+      <c r="AM3" s="75">
         <f>'Reach Propertise'!$F3</f>
         <v>0.43330000000000002</v>
       </c>
-      <c r="AN3" s="76">
+      <c r="AN3" s="75">
         <v>1</v>
       </c>
-      <c r="AO3" s="96">
+      <c r="AO3" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>2</v>
       </c>
-      <c r="AP3" s="96">
+      <c r="AP3" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="72">
+      <c r="B4" s="71">
         <f t="shared" ref="B4:B8" si="1">C3</f>
         <v>2175</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="71">
         <v>3875</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="71">
         <v>7.24</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="71">
         <f>3.25*1000/3600</f>
         <v>0.90277777777777779</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="71">
         <v>1.1333</v>
       </c>
-      <c r="G4" s="72">
+      <c r="G4" s="71">
         <f>8.8*1000/3600</f>
         <v>2.4444444444444446</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="71">
         <v>7.24</v>
       </c>
-      <c r="I4" s="72"/>
-      <c r="J4" s="82">
+      <c r="I4" s="71"/>
+      <c r="J4" s="81">
         <f>11.76/10000</f>
         <v>1.176E-3</v>
       </c>
-      <c r="K4" s="82">
+      <c r="K4" s="81">
         <v>0.57269499999999995</v>
       </c>
-      <c r="L4" s="82">
+      <c r="L4" s="81">
         <v>16.589739999999999</v>
       </c>
-      <c r="M4" s="82">
+      <c r="M4" s="81">
         <v>0.11053590000000001</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="83">
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="82">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.76203618663908446</v>
       </c>
-      <c r="R4" s="76">
+      <c r="R4" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.61968477416398082</v>
       </c>
-      <c r="S4" s="76">
+      <c r="S4" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.94978283675010045</v>
       </c>
-      <c r="T4" s="76">
+      <c r="T4" s="75">
         <v>1</v>
       </c>
-      <c r="U4" s="76">
+      <c r="U4" s="75">
         <v>0</v>
       </c>
-      <c r="V4" s="76">
+      <c r="V4" s="75">
         <v>0</v>
       </c>
-      <c r="W4" s="84">
+      <c r="W4" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>3.875</v>
       </c>
-      <c r="X4" s="82">
+      <c r="X4" s="100">
         <v>0.11053590000000001</v>
       </c>
-      <c r="Y4" s="77" t="str">
+      <c r="Y4" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z4" s="76">
+      <c r="Z4" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>1700</v>
       </c>
-      <c r="AA4" s="84">
+      <c r="AA4" s="83">
         <f>(Table1[[#This Row],[Tp]]-AN4)*3600</f>
         <v>4079.88</v>
       </c>
-      <c r="AB4" s="85">
+      <c r="AB4" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>815</v>
       </c>
-      <c r="AC4" s="85">
+      <c r="AC4" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>3.875</v>
       </c>
-      <c r="AD4" s="85">
+      <c r="AD4" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>2.1749999999999998</v>
       </c>
-      <c r="AE4" s="76">
+      <c r="AE4" s="75">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF4" s="77">
+      <c r="AF4" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.31357994246451354</v>
       </c>
-      <c r="AG4" s="77">
+      <c r="AG4" s="76">
         <f>(('Reach Propertise'!$F4-'Reach Propertise'!$R4)/'Reach Propertise'!$F4)</f>
         <v>0.45320323465633033</v>
       </c>
-      <c r="AH4" s="77">
+      <c r="AH4" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.74649259238746246</v>
       </c>
-      <c r="AI4" s="79">
+      <c r="AI4" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>28.967845013488855</v>
       </c>
-      <c r="AJ4" s="84">
+      <c r="AJ4" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>9500.8611492999989</v>
       </c>
-      <c r="AK4" s="84">
+      <c r="AK4" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>1.1333</v>
       </c>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76">
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75">
         <f>'Reach Propertise'!$F4</f>
         <v>1.1333</v>
       </c>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="96">
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>3</v>
       </c>
-      <c r="AP4" s="96">
+      <c r="AP4" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+    <row r="5" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="72">
+      <c r="B5" s="71">
         <f t="shared" si="1"/>
         <v>3875</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="71">
         <v>6275</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="71">
         <v>7.51</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="71">
         <f>3.75*1000/3600</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="71">
         <v>2.4666999999999999</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="71">
         <f>14.8*1000/3600</f>
         <v>4.1111111111111107</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="71">
         <v>7.51</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="82">
+      <c r="I5" s="71"/>
+      <c r="J5" s="81">
         <f>16.67/10000</f>
         <v>1.6670000000000001E-3</v>
       </c>
-      <c r="K5" s="82">
+      <c r="K5" s="81">
         <v>0.62161200000000005</v>
       </c>
-      <c r="L5" s="82">
+      <c r="L5" s="81">
         <v>17.83409</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="81">
         <v>5.8002699999999997E-2</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="83">
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="82">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.67743806094400494</v>
       </c>
-      <c r="R5" s="76">
+      <c r="R5" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.98409980941677766</v>
       </c>
-      <c r="S5" s="76">
+      <c r="S5" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.70663459502799519</v>
       </c>
-      <c r="T5" s="76">
+      <c r="T5" s="75">
         <v>1</v>
       </c>
-      <c r="U5" s="76">
+      <c r="U5" s="75">
         <v>0</v>
       </c>
-      <c r="V5" s="76">
+      <c r="V5" s="75">
         <v>0</v>
       </c>
-      <c r="W5" s="84">
+      <c r="W5" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>6.2750000000000004</v>
       </c>
-      <c r="X5" s="82">
+      <c r="X5" s="100">
         <v>5.8002699999999997E-2</v>
       </c>
-      <c r="Y5" s="77" t="str">
+      <c r="Y5" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z5" s="76">
+      <c r="Z5" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>2400</v>
       </c>
-      <c r="AA5" s="84">
+      <c r="AA5" s="83">
         <f>(Table1[[#This Row],[Tp]]-AN5)*3600</f>
         <v>8880.119999999999</v>
       </c>
-      <c r="AB5" s="85">
+      <c r="AB5" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>1776</v>
       </c>
-      <c r="AC5" s="85">
+      <c r="AC5" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>6.2750000000000004</v>
       </c>
-      <c r="AD5" s="85">
+      <c r="AD5" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>3.875</v>
       </c>
-      <c r="AE5" s="76">
+      <c r="AE5" s="75">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF5" s="77">
+      <c r="AF5" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>5.5264182959893514E-2</v>
       </c>
-      <c r="AG5" s="77">
+      <c r="AG5" s="76">
         <f>(('Reach Propertise'!$F5-'Reach Propertise'!$R5)/'Reach Propertise'!$F5)</f>
         <v>0.60104600907415673</v>
       </c>
-      <c r="AH5" s="77">
+      <c r="AH5" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.7606243706824054</v>
       </c>
-      <c r="AI5" s="79">
+      <c r="AI5" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>28.690067115821442</v>
       </c>
-      <c r="AJ5" s="84">
+      <c r="AJ5" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>11085.88435308</v>
       </c>
-      <c r="AK5" s="84">
+      <c r="AK5" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>2.4666999999999999</v>
       </c>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76">
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="75">
         <f>'Reach Propertise'!$F5</f>
         <v>2.4666999999999999</v>
       </c>
-      <c r="AN5" s="76"/>
-      <c r="AO5" s="96">
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>6</v>
       </c>
-      <c r="AP5" s="96">
+      <c r="AP5" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+    <row r="6" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="72">
+      <c r="B6" s="71">
         <f t="shared" si="1"/>
         <v>6275</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="71">
         <v>8775</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="71">
         <v>9.25</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <f>10.5*1000/3600</f>
         <v>2.9166666666666665</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="71">
         <v>3.7332999999999998</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="71">
         <f>20*1000/3600</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="71">
         <v>9.25</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="82">
+      <c r="I6" s="71"/>
+      <c r="J6" s="81">
         <f>24/10000</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K6" s="82">
+      <c r="K6" s="81">
         <v>0.52793800000000002</v>
       </c>
-      <c r="L6" s="82">
+      <c r="L6" s="81">
         <v>34.910490000000003</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="81">
         <v>3.4605400000000001E-2</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="83">
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="82">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.50188343915290901</v>
       </c>
-      <c r="R6" s="76">
+      <c r="R6" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>1.3836767469684685</v>
       </c>
-      <c r="S6" s="76">
+      <c r="S6" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.65290761524656471</v>
       </c>
-      <c r="T6" s="76">
+      <c r="T6" s="75">
         <v>1</v>
       </c>
-      <c r="U6" s="76">
+      <c r="U6" s="75">
         <v>0</v>
       </c>
-      <c r="V6" s="76">
+      <c r="V6" s="75">
         <v>0</v>
       </c>
-      <c r="W6" s="84">
+      <c r="W6" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>8.7750000000000004</v>
       </c>
-      <c r="X6" s="82">
+      <c r="X6" s="100">
         <v>3.4605400000000001E-2</v>
       </c>
-      <c r="Y6" s="77" t="str">
+      <c r="Y6" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z6" s="76">
+      <c r="Z6" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>2500</v>
       </c>
-      <c r="AA6" s="84">
+      <c r="AA6" s="83">
         <f>(Table1[[#This Row],[Tp]]-AN6)*3600</f>
         <v>13439.88</v>
       </c>
-      <c r="AB6" s="85">
+      <c r="AB6" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>2687</v>
       </c>
-      <c r="AC6" s="85">
+      <c r="AC6" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>8.7750000000000004</v>
       </c>
-      <c r="AD6" s="85">
+      <c r="AD6" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>6.2750000000000004</v>
       </c>
-      <c r="AE6" s="76">
+      <c r="AE6" s="75">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF6" s="77">
+      <c r="AF6" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.52559654389652499</v>
       </c>
-      <c r="AG6" s="77">
+      <c r="AG6" s="76">
         <f>(('Reach Propertise'!$F6-'Reach Propertise'!$R6)/'Reach Propertise'!$F6)</f>
         <v>0.6293689907137201</v>
       </c>
-      <c r="AH6" s="77">
+      <c r="AH6" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.7509381855456756</v>
       </c>
-      <c r="AI6" s="79">
+      <c r="AI6" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>66.126117081930076</v>
       </c>
-      <c r="AJ6" s="84">
+      <c r="AJ6" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>18430.574269620003</v>
       </c>
-      <c r="AK6" s="84">
+      <c r="AK6" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>3.7332999999999998</v>
       </c>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76">
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="75">
         <f>'Reach Propertise'!$F6</f>
         <v>3.7332999999999998</v>
       </c>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="96">
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>8</v>
       </c>
-      <c r="AP6" s="96">
+      <c r="AP6" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="72">
+      <c r="B7" s="71">
         <f t="shared" si="1"/>
         <v>8775</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="71">
         <v>11275</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="71">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="71">
         <f>15.1*1000/3600</f>
         <v>4.1944444444444446</v>
       </c>
-      <c r="F7" s="72">
+      <c r="F7" s="71">
         <v>5.0332999999999997</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="71">
         <f>26*1000/3600</f>
         <v>7.2222222222222223</v>
       </c>
-      <c r="H7" s="72">
+      <c r="H7" s="71">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I7" s="72"/>
-      <c r="J7" s="82">
+      <c r="I7" s="71"/>
+      <c r="J7" s="81">
         <f>44/10000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="K7" s="82">
+      <c r="K7" s="81">
         <v>0.42355799999999999</v>
       </c>
-      <c r="L7" s="82">
+      <c r="L7" s="81">
         <v>31.004169999999998</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="81">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="83">
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="82">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.74626500626555514</v>
       </c>
-      <c r="R7" s="76">
+      <c r="R7" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.93056010748724483</v>
       </c>
-      <c r="S7" s="76">
+      <c r="S7" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.62224473892763099</v>
       </c>
-      <c r="T7" s="76">
+      <c r="T7" s="75">
         <v>1</v>
       </c>
-      <c r="U7" s="76">
+      <c r="U7" s="75">
         <v>0</v>
       </c>
-      <c r="V7" s="76">
+      <c r="V7" s="75">
         <v>0</v>
       </c>
-      <c r="W7" s="84">
+      <c r="W7" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>11.275</v>
       </c>
-      <c r="X7" s="82">
+      <c r="X7" s="100">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="Y7" s="77" t="str">
+      <c r="Y7" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z7" s="76">
+      <c r="Z7" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>2500</v>
       </c>
-      <c r="AA7" s="84">
+      <c r="AA7" s="83">
         <f>(Table1[[#This Row],[Tp]]-AN7)*3600</f>
         <v>18119.879999999997</v>
       </c>
-      <c r="AB7" s="85">
+      <c r="AB7" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>3623</v>
       </c>
-      <c r="AC7" s="85">
+      <c r="AC7" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>11.275</v>
       </c>
-      <c r="AD7" s="85">
+      <c r="AD7" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>8.7750000000000004</v>
       </c>
-      <c r="AE7" s="76">
+      <c r="AE7" s="75">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF7" s="77">
+      <c r="AF7" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.7781446101354913</v>
       </c>
-      <c r="AG7" s="77">
+      <c r="AG7" s="76">
         <f>(('Reach Propertise'!$F7-'Reach Propertise'!$R7)/'Reach Propertise'!$F7)</f>
         <v>0.8151192840706406</v>
       </c>
-      <c r="AH7" s="77">
+      <c r="AH7" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.8711532158863815</v>
       </c>
-      <c r="AI7" s="79">
+      <c r="AI7" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>73.199349321698563</v>
       </c>
-      <c r="AJ7" s="84">
+      <c r="AJ7" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>13132.06423686</v>
       </c>
-      <c r="AK7" s="84">
+      <c r="AK7" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>5.0332999999999997</v>
       </c>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76">
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="75">
         <f>'Reach Propertise'!$F7</f>
         <v>5.0332999999999997</v>
       </c>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="96">
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>11</v>
       </c>
-      <c r="AP7" s="96">
+      <c r="AP7" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+    <row r="8" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="72">
+      <c r="B8" s="71">
         <f t="shared" si="1"/>
         <v>11275</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="71">
         <v>14775</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="71">
         <v>10</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="71">
         <f>19*1000/3600</f>
         <v>5.2777777777777777</v>
       </c>
-      <c r="F8" s="72">
+      <c r="F8" s="71">
         <v>6.5369000000000002</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="71">
         <f>33.5*1000/3600</f>
         <v>9.3055555555555554</v>
       </c>
-      <c r="H8" s="72">
+      <c r="H8" s="71">
         <v>10</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="82">
+      <c r="I8" s="71"/>
+      <c r="J8" s="81">
         <f>25.71/10000</f>
         <v>2.5709999999999999E-3</v>
       </c>
-      <c r="K8" s="82">
+      <c r="K8" s="81">
         <v>0.62438099999999996</v>
       </c>
-      <c r="L8" s="82">
+      <c r="L8" s="81">
         <v>23.586819999999999</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="81">
         <v>2.0655E-2</v>
       </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="83">
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="82">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.67901743896945754</v>
       </c>
-      <c r="R8" s="76">
+      <c r="R8" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>1.4318074417908333</v>
       </c>
-      <c r="S8" s="76">
+      <c r="S8" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.62784602283447299</v>
       </c>
-      <c r="T8" s="76">
+      <c r="T8" s="75">
         <v>1</v>
       </c>
-      <c r="U8" s="76">
+      <c r="U8" s="75">
         <v>0</v>
       </c>
-      <c r="V8" s="76">
+      <c r="V8" s="75">
         <v>0</v>
       </c>
-      <c r="W8" s="84">
+      <c r="W8" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>14.775</v>
       </c>
-      <c r="X8" s="82">
+      <c r="X8" s="100">
         <v>2.0655E-2</v>
       </c>
-      <c r="Y8" s="77" t="str">
+      <c r="Y8" s="76" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z8" s="76">
+      <c r="Z8" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>3500</v>
       </c>
-      <c r="AA8" s="84">
+      <c r="AA8" s="83">
         <f>(Table1[[#This Row],[Tp]]-AN8)*3600</f>
         <v>23532.84</v>
       </c>
-      <c r="AB8" s="85">
+      <c r="AB8" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>4706</v>
       </c>
-      <c r="AC8" s="85">
+      <c r="AC8" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>14.775</v>
       </c>
-      <c r="AD8" s="85">
+      <c r="AD8" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>11.275</v>
       </c>
-      <c r="AE8" s="76">
+      <c r="AE8" s="75">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF8" s="77">
+      <c r="AF8" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.72871016892384211</v>
       </c>
-      <c r="AG8" s="77">
+      <c r="AG8" s="76">
         <f>(('Reach Propertise'!$F8-'Reach Propertise'!$R8)/'Reach Propertise'!$F8)</f>
         <v>0.78096537475090133</v>
       </c>
-      <c r="AH8" s="77">
+      <c r="AH8" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.84613412565829849</v>
       </c>
-      <c r="AI8" s="79">
+      <c r="AI8" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>37.776325672946484</v>
       </c>
-      <c r="AJ8" s="84">
+      <c r="AJ8" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>14727.162258419998</v>
       </c>
-      <c r="AK8" s="84">
+      <c r="AK8" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>6.5369000000000002</v>
       </c>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76">
+      <c r="AL8" s="75"/>
+      <c r="AM8" s="75">
         <f>'Reach Propertise'!$F8</f>
         <v>6.5369000000000002</v>
       </c>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="96">
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="102">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>14</v>
       </c>
-      <c r="AP8" s="96">
+      <c r="AP8" s="102">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="X9" s="87"/>
-      <c r="Y9" s="88"/>
-    </row>
-    <row r="10" spans="1:42" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="X10" s="87"/>
-      <c r="Y10" s="88"/>
-    </row>
-    <row r="11" spans="1:42" s="68" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="X11" s="69"/>
-      <c r="Y11" s="70"/>
+    <row r="9" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="86"/>
+      <c r="Y9" s="87"/>
+    </row>
+    <row r="10" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="86"/>
+      <c r="Y10" s="87"/>
+    </row>
+    <row r="11" spans="1:42" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="68"/>
+      <c r="Y11" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8256,41 +8283,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8325,80 +8352,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="22" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="59" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="61">
+      <c r="A2" s="60">
         <v>1100</v>
       </c>
       <c r="B2" s="13">
         <v>1000</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="61">
         <v>0</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>25</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
       <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I4" s="24"/>
@@ -8439,7 +8466,7 @@
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="89" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8450,7 +8477,7 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="P3" s="90" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8461,7 +8488,7 @@
       <c r="H4">
         <v>25</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="90" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8472,7 +8499,7 @@
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="P5" s="91" t="s">
+      <c r="P5" s="90" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8483,7 +8510,7 @@
       <c r="H6">
         <v>100</v>
       </c>
-      <c r="P6" s="91" t="s">
+      <c r="P6" s="90" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8494,7 +8521,7 @@
       <c r="H7">
         <v>150</v>
       </c>
-      <c r="P7" s="91" t="s">
+      <c r="P7" s="90" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8505,7 +8532,7 @@
       <c r="H8">
         <v>200</v>
       </c>
-      <c r="P8" s="91" t="s">
+      <c r="P8" s="90" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8516,7 +8543,7 @@
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="P9" s="91" t="s">
+      <c r="P9" s="90" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8527,7 +8554,7 @@
       <c r="H10">
         <v>300</v>
       </c>
-      <c r="P10" s="91" t="s">
+      <c r="P10" s="90" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8535,7 +8562,7 @@
       <c r="H11">
         <v>350</v>
       </c>
-      <c r="P11" s="91" t="s">
+      <c r="P11" s="90" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8543,7 +8570,7 @@
       <c r="H12">
         <v>400</v>
       </c>
-      <c r="P12" s="92" t="s">
+      <c r="P12" s="91" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8551,7 +8578,7 @@
       <c r="H13">
         <v>450</v>
       </c>
-      <c r="P13" s="91" t="s">
+      <c r="P13" s="90" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8559,7 +8586,7 @@
       <c r="H14">
         <v>500</v>
       </c>
-      <c r="P14" s="91" t="s">
+      <c r="P14" s="90" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8567,7 +8594,7 @@
       <c r="H15">
         <v>550</v>
       </c>
-      <c r="P15" s="91" t="s">
+      <c r="P15" s="90" t="s">
         <v>96</v>
       </c>
     </row>
@@ -8575,7 +8602,7 @@
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="90" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8583,7 +8610,7 @@
       <c r="H17">
         <v>650</v>
       </c>
-      <c r="P17" s="91" t="s">
+      <c r="P17" s="90" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8591,7 +8618,7 @@
       <c r="H18">
         <v>700</v>
       </c>
-      <c r="P18" s="91" t="s">
+      <c r="P18" s="90" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8599,7 +8626,7 @@
       <c r="H19">
         <v>750</v>
       </c>
-      <c r="P19" s="91" t="s">
+      <c r="P19" s="90" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8607,7 +8634,7 @@
       <c r="H20">
         <v>800</v>
       </c>
-      <c r="P20" s="91" t="s">
+      <c r="P20" s="90" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8615,7 +8642,7 @@
       <c r="H21">
         <v>900</v>
       </c>
-      <c r="P21" s="91" t="s">
+      <c r="P21" s="90" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8623,7 +8650,7 @@
       <c r="H22">
         <v>1000</v>
       </c>
-      <c r="P22" s="93" t="s">
+      <c r="P22" s="92" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8631,16 +8658,16 @@
       <c r="H23">
         <v>1250</v>
       </c>
-      <c r="P23" s="93"/>
+      <c r="P23" s="92"/>
     </row>
     <row r="24" spans="8:16" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1500</v>
       </c>
-      <c r="P24" s="94"/>
+      <c r="P24" s="93"/>
     </row>
     <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="P25" s="95"/>
+      <c r="P25" s="94"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8823,31 +8850,31 @@
       <c r="I5">
         <v>35.992128750688295</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="38">
         <v>0.68029399999999995</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="38">
         <v>14.36734</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="38">
         <v>53.357640000000004</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="38">
         <v>24.927990000000001</v>
       </c>
-      <c r="T5" s="39">
+      <c r="T5" s="38">
         <v>27.509250000000002</v>
       </c>
-      <c r="U5" s="39">
+      <c r="U5" s="38">
         <v>15.301310000000001</v>
       </c>
-      <c r="V5" s="39">
+      <c r="V5" s="38">
         <v>27.438300000000002</v>
       </c>
-      <c r="W5" s="39">
+      <c r="W5" s="38">
         <v>35.873829999999998</v>
       </c>
-      <c r="X5" s="39">
+      <c r="X5" s="38">
         <v>21.671289999999999</v>
       </c>
     </row>
@@ -8879,31 +8906,31 @@
       <c r="I6">
         <v>28.646357418215061</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="38">
         <v>0.31323899999999999</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="38">
         <v>24.631589999999999</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="38">
         <v>32.5351</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="38">
         <v>25.22383</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="38">
         <v>29.80743</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="38">
         <v>16.616140000000001</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="38">
         <v>27.21386</v>
       </c>
-      <c r="W6" s="39">
+      <c r="W6" s="38">
         <v>27.611440000000002</v>
       </c>
-      <c r="X6" s="39">
+      <c r="X6" s="38">
         <v>18.486730000000001</v>
       </c>
     </row>
@@ -8935,147 +8962,147 @@
       <c r="I7">
         <v>29.408498052461969</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="38">
         <v>0.26703500000000002</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="38">
         <v>11.671760000000001</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="38">
         <v>14.04162</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <v>20.40061</v>
       </c>
-      <c r="T7" s="39">
+      <c r="T7" s="38">
         <v>21.494890000000002</v>
       </c>
-      <c r="U7" s="39">
+      <c r="U7" s="38">
         <v>16.362919999999999</v>
       </c>
-      <c r="V7" s="39">
+      <c r="V7" s="38">
         <v>18.332920000000001</v>
       </c>
-      <c r="W7" s="39">
+      <c r="W7" s="38">
         <v>20.449649999999998</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="38">
         <v>17.398769999999999</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P8" s="39">
+      <c r="P8" s="38">
         <v>0.35930200000000001</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="38">
         <v>4.2178009999999997</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="38">
         <v>18.622250000000001</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="38">
         <v>10.8209</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="38">
         <v>10.4069</v>
       </c>
-      <c r="U8" s="39">
+      <c r="U8" s="38">
         <v>7.1574400000000002</v>
       </c>
-      <c r="V8" s="39">
+      <c r="V8" s="38">
         <v>10.87673</v>
       </c>
-      <c r="W8" s="39">
+      <c r="W8" s="38">
         <v>15.77364</v>
       </c>
-      <c r="X8" s="39">
+      <c r="X8" s="38">
         <v>14.665559999999999</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P9" s="39">
+      <c r="P9" s="38">
         <v>0.34387400000000001</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="38">
         <v>7.9991050000000001</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="38">
         <v>62.363979999999998</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="38">
         <v>8.5952439999999992</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="38">
         <v>11.201169999999999</v>
       </c>
-      <c r="U9" s="39">
+      <c r="U9" s="38">
         <v>4.172085</v>
       </c>
-      <c r="V9" s="39">
+      <c r="V9" s="38">
         <v>12.52872</v>
       </c>
-      <c r="W9" s="39">
+      <c r="W9" s="38">
         <v>16.52225</v>
       </c>
-      <c r="X9" s="39">
+      <c r="X9" s="38">
         <v>16.912320000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P10" s="39">
+      <c r="P10" s="38">
         <v>0.335067</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="38">
         <v>3.5622069999999999</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="38">
         <v>70.772999999999996</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="38">
         <v>4.4109420000000004</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="38">
         <v>5.702108</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="38">
         <v>1.9560439999999999</v>
       </c>
-      <c r="V10" s="39">
+      <c r="V10" s="38">
         <v>7.2661790000000002</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="38">
         <v>11.26384</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="38">
         <v>11.576589999999999</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P11" s="39">
+      <c r="P11" s="38">
         <v>0.45284400000000002</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="38">
         <v>1.7726329999999999</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="38">
         <v>35.461190000000002</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="38">
         <v>4.984934</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="38">
         <v>4.5795250000000003</v>
       </c>
-      <c r="U11" s="39">
+      <c r="U11" s="38">
         <v>2.542027</v>
       </c>
-      <c r="V11" s="39">
+      <c r="V11" s="38">
         <v>6.3714459999999997</v>
       </c>
-      <c r="W11" s="39">
+      <c r="W11" s="38">
         <v>11.6691</v>
       </c>
-      <c r="X11" s="39">
+      <c r="X11" s="38">
         <v>12.36679</v>
       </c>
     </row>
@@ -9083,233 +9110,233 @@
       <c r="M17" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="38">
         <v>0.68029399999999995</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <v>0.31323899999999999</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="38">
         <v>0.26703500000000002</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="38">
         <v>0.35930200000000001</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="38">
         <v>0.34387400000000001</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S17" s="38">
         <v>0.335067</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="38">
         <v>0.45284400000000002</v>
       </c>
     </row>
     <row r="18" spans="13:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="38">
         <v>14.36734</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="38">
         <v>24.631589999999999</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="38">
         <v>11.671760000000001</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="38">
         <v>4.2178009999999997</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="38">
         <v>7.9991050000000001</v>
       </c>
-      <c r="S18" s="39">
+      <c r="S18" s="38">
         <v>3.5622069999999999</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="38">
         <v>1.7726329999999999</v>
       </c>
     </row>
     <row r="19" spans="13:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="38">
         <v>53.357640000000004</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="38">
         <v>32.5351</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="38">
         <v>14.04162</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="38">
         <v>18.622250000000001</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="38">
         <v>62.363979999999998</v>
       </c>
-      <c r="S19" s="39">
+      <c r="S19" s="38">
         <v>70.772999999999996</v>
       </c>
-      <c r="T19" s="39">
+      <c r="T19" s="38">
         <v>35.461190000000002</v>
       </c>
     </row>
     <row r="20" spans="13:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="M20" s="35" t="s">
+      <c r="M20" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="38">
         <v>24.927990000000001</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="38">
         <v>25.22383</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="38">
         <v>20.40061</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="38">
         <v>10.8209</v>
       </c>
-      <c r="R20" s="39">
+      <c r="R20" s="38">
         <v>8.5952439999999992</v>
       </c>
-      <c r="S20" s="39">
+      <c r="S20" s="38">
         <v>4.4109420000000004</v>
       </c>
-      <c r="T20" s="39">
+      <c r="T20" s="38">
         <v>4.984934</v>
       </c>
     </row>
     <row r="21" spans="13:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="M21" s="35" t="s">
+      <c r="M21" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="38">
         <v>27.509250000000002</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="38">
         <v>29.80743</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21" s="38">
         <v>21.494890000000002</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="38">
         <v>10.4069</v>
       </c>
-      <c r="R21" s="39">
+      <c r="R21" s="38">
         <v>11.201169999999999</v>
       </c>
-      <c r="S21" s="39">
+      <c r="S21" s="38">
         <v>5.702108</v>
       </c>
-      <c r="T21" s="39">
+      <c r="T21" s="38">
         <v>4.5795250000000003</v>
       </c>
     </row>
     <row r="22" spans="13:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="M22" s="35" t="s">
+      <c r="M22" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="38">
         <v>15.301310000000001</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="38">
         <v>16.616140000000001</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="38">
         <v>16.362919999999999</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="38">
         <v>7.1574400000000002</v>
       </c>
-      <c r="R22" s="39">
+      <c r="R22" s="38">
         <v>4.172085</v>
       </c>
-      <c r="S22" s="39">
+      <c r="S22" s="38">
         <v>1.9560439999999999</v>
       </c>
-      <c r="T22" s="39">
+      <c r="T22" s="38">
         <v>2.542027</v>
       </c>
     </row>
     <row r="23" spans="13:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="M23" s="35" t="s">
+      <c r="M23" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="38">
         <v>27.438300000000002</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="38">
         <v>27.21386</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="38">
         <v>18.332920000000001</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="38">
         <v>10.87673</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="38">
         <v>12.52872</v>
       </c>
-      <c r="S23" s="39">
+      <c r="S23" s="38">
         <v>7.2661790000000002</v>
       </c>
-      <c r="T23" s="39">
+      <c r="T23" s="38">
         <v>6.3714459999999997</v>
       </c>
     </row>
     <row r="24" spans="13:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="38">
         <v>35.873829999999998</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="38">
         <v>27.611440000000002</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="38">
         <v>20.449649999999998</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="38">
         <v>15.77364</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="38">
         <v>16.52225</v>
       </c>
-      <c r="S24" s="39">
+      <c r="S24" s="38">
         <v>11.26384</v>
       </c>
-      <c r="T24" s="39">
+      <c r="T24" s="38">
         <v>11.6691</v>
       </c>
     </row>
     <row r="25" spans="13:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="M25" s="35" t="s">
+      <c r="M25" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="38">
         <v>21.671289999999999</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="38">
         <v>18.486730000000001</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="38">
         <v>17.398769999999999</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="38">
         <v>14.665559999999999</v>
       </c>
-      <c r="R25" s="39">
+      <c r="R25" s="38">
         <v>16.912320000000001</v>
       </c>
-      <c r="S25" s="39">
+      <c r="S25" s="38">
         <v>11.576589999999999</v>
       </c>
-      <c r="T25" s="39">
+      <c r="T25" s="38">
         <v>12.36679</v>
       </c>
     </row>
@@ -9335,30 +9362,30 @@
       <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="36">
         <v>16000</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>27900</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="36">
         <v>36500</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="36">
         <v>49600</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="36">
         <v>57100</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="36">
         <v>60000</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="37">
         <v>76600</v>
       </c>
     </row>
     <row r="6" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="33" t="s">
         <v>75</v>
       </c>
       <c r="L6">
@@ -9384,7 +9411,7 @@
       </c>
     </row>
     <row r="7" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="34" t="s">
         <v>61</v>
       </c>
       <c r="L7">
@@ -9410,7 +9437,7 @@
       </c>
     </row>
     <row r="8" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="34" t="s">
         <v>66</v>
       </c>
       <c r="L8">
@@ -9436,7 +9463,7 @@
       </c>
     </row>
     <row r="9" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="34" t="s">
         <v>62</v>
       </c>
       <c r="L9">
@@ -9462,7 +9489,7 @@
       </c>
     </row>
     <row r="10" spans="11:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="34" t="s">
         <v>63</v>
       </c>
       <c r="L10">
@@ -9488,7 +9515,7 @@
       </c>
     </row>
     <row r="11" spans="11:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="34" t="s">
         <v>64</v>
       </c>
       <c r="L11">
@@ -9514,7 +9541,7 @@
       </c>
     </row>
     <row r="12" spans="11:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="35" t="s">
+      <c r="K12" s="34" t="s">
         <v>65</v>
       </c>
       <c r="L12">
@@ -9540,7 +9567,7 @@
       </c>
     </row>
     <row r="13" spans="11:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="35" t="s">
         <v>67</v>
       </c>
       <c r="L13">
@@ -9566,7 +9593,7 @@
       </c>
     </row>
     <row r="14" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="34" t="s">
         <v>68</v>
       </c>
       <c r="L14">
@@ -9593,7 +9620,7 @@
     </row>
     <row r="17" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="27" t="s">
         <v>75</v>
       </c>
       <c r="L18">
@@ -9619,59 +9646,59 @@
       </c>
     </row>
     <row r="19" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="30">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="30">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="30">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="30">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="30">
         <v>5.8E-4</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="30">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="32">
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="30">
         <v>7.46E-2</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="30">
         <v>5.62E-2</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="30">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="30">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="30">
         <v>3.918E-2</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="30">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R20" s="32">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="29" t="s">
+      <c r="K21" s="28" t="s">
         <v>79</v>
       </c>
       <c r="L21">
@@ -9698,274 +9725,274 @@
     </row>
     <row r="26" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="43">
         <v>16000</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="43">
         <v>27900</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="43">
         <v>36500</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="43">
         <v>49600</v>
       </c>
-      <c r="K27" s="44">
+      <c r="K27" s="43">
         <v>57100</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="43">
         <v>60000</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="43">
         <v>76600</v>
       </c>
     </row>
     <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="45"/>
-      <c r="G28" s="98" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="100"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
     </row>
     <row r="29" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="46">
         <v>1.146E-2</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="46">
         <v>8.4089999999999998E-3</v>
       </c>
-      <c r="I29" s="47">
+      <c r="I29" s="46">
         <v>7.2880000000000002E-3</v>
       </c>
-      <c r="J29" s="47">
+      <c r="J29" s="46">
         <v>5.7679999999999997E-3</v>
       </c>
-      <c r="K29" s="47">
+      <c r="K29" s="46">
         <v>4.3639999999999998E-3</v>
       </c>
-      <c r="L29" s="47">
+      <c r="L29" s="46">
         <v>3.885E-3</v>
       </c>
-      <c r="M29" s="47">
+      <c r="M29" s="46">
         <v>3.1909999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="46">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="46">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="I30" s="47">
+      <c r="I30" s="46">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="46">
         <v>4.6210000000000001E-2</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K30" s="46">
         <v>4.3380000000000002E-2</v>
       </c>
-      <c r="L30" s="47">
+      <c r="L30" s="46">
         <v>4.2430000000000002E-2</v>
       </c>
-      <c r="M30" s="47">
+      <c r="M30" s="46">
         <v>1.941E-3</v>
       </c>
     </row>
     <row r="31" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="46">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="46">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="I31" s="47">
+      <c r="I31" s="46">
         <v>2.5790000000000001E-3</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="46">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="K31" s="47">
+      <c r="K31" s="46">
         <v>2E-3</v>
       </c>
-      <c r="L31" s="47">
+      <c r="L31" s="46">
         <v>1.9980000000000002E-3</v>
       </c>
-      <c r="M31" s="47">
+      <c r="M31" s="46">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="6:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="46">
         <v>3.4130000000000001E-2</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="46">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="46">
         <v>2.2710000000000001E-2</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="46">
         <v>1.95E-2</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="46">
         <v>1.8180000000000002E-2</v>
       </c>
-      <c r="L32" s="47">
+      <c r="L32" s="46">
         <v>1.7739999999999999E-2</v>
       </c>
-      <c r="M32" s="47">
+      <c r="M32" s="46">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="46">
         <v>3.7019999999999997E-2</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="46">
         <v>2.818E-2</v>
       </c>
-      <c r="I33" s="47">
+      <c r="I33" s="46">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="46">
         <v>2.12E-2</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="46">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="L33" s="47">
+      <c r="L33" s="46">
         <v>1.9269999999999999E-2</v>
       </c>
-      <c r="M33" s="47">
+      <c r="M33" s="46">
         <v>6.3099999999999996E-3</v>
       </c>
     </row>
     <row r="34" spans="6:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="46">
         <v>5.4809999999999998E-2</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="46">
         <v>4.2220000000000001E-2</v>
       </c>
-      <c r="I34" s="47">
+      <c r="I34" s="46">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="J34" s="47">
+      <c r="J34" s="46">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K34" s="47">
+      <c r="K34" s="46">
         <v>2.9940000000000001E-2</v>
       </c>
-      <c r="L34" s="47">
+      <c r="L34" s="46">
         <v>2.92E-2</v>
       </c>
-      <c r="M34" s="47">
+      <c r="M34" s="46">
         <v>4.5199999999999997E-3</v>
       </c>
     </row>
     <row r="35" spans="6:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="46">
         <v>2.726E-2</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="46">
         <v>2.06E-2</v>
       </c>
-      <c r="I35" s="47">
+      <c r="I35" s="46">
         <v>1.8069999999999999E-2</v>
       </c>
-      <c r="J35" s="47">
+      <c r="J35" s="46">
         <v>1.5509999999999999E-2</v>
       </c>
-      <c r="K35" s="47">
+      <c r="K35" s="46">
         <v>1.447E-2</v>
       </c>
-      <c r="L35" s="47">
+      <c r="L35" s="46">
         <v>1.41E-2</v>
       </c>
-      <c r="M35" s="47">
+      <c r="M35" s="46">
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="36" spans="6:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="46">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="46">
         <v>1.12E-2</v>
       </c>
-      <c r="I36" s="47">
+      <c r="I36" s="46">
         <v>9.7900000000000001E-3</v>
       </c>
-      <c r="J36" s="47">
+      <c r="J36" s="46">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="K36" s="47">
+      <c r="K36" s="46">
         <v>7.8189999999999996E-3</v>
       </c>
-      <c r="L36" s="47">
+      <c r="L36" s="46">
         <v>7.62E-3</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="46">
         <v>4.2069999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="47">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="47">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="47">
         <v>7.3600000000000002E-3</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="47">
         <v>6.3E-3</v>
       </c>
-      <c r="K37" s="48">
+      <c r="K37" s="47">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L37" s="48">
+      <c r="L37" s="47">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="M37" s="48">
+      <c r="M37" s="47">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10255,138 +10282,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="29">
         <v>1.051031378</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>0.25</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="30">
         <v>4</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>1.4670000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="29">
         <v>0.225274538</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>1.0620000000000001</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="A4" s="29">
         <v>0.110535912</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="30">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>5.8002663000000003E-2</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>1.54E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>3.4605404999999999E-2</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>2.0655E-2</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
         <v>0.124</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="32">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
@@ -10394,30 +10421,30 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>210</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>1175</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>2875</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>5275</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="36">
         <v>7775</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="36">
         <v>10275</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="37">
         <v>13775</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>75</v>
       </c>
       <c r="G11">
@@ -10443,7 +10470,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="34" t="s">
         <v>61</v>
       </c>
       <c r="G12">
@@ -10469,7 +10496,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>66</v>
       </c>
       <c r="G13">
@@ -10493,10 +10520,10 @@
       <c r="M13">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="Q13" s="40"/>
+      <c r="Q13" s="39"/>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>62</v>
       </c>
       <c r="G14">
@@ -10520,10 +10547,10 @@
       <c r="M14">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="34" t="s">
         <v>63</v>
       </c>
       <c r="G15">
@@ -10547,10 +10574,10 @@
       <c r="M15">
         <v>9.4E-2</v>
       </c>
-      <c r="Q15" s="41"/>
+      <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="34" t="s">
         <v>64</v>
       </c>
       <c r="G16">
@@ -10574,10 +10601,10 @@
       <c r="M16">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="34" t="s">
         <v>65</v>
       </c>
       <c r="G17">
@@ -10601,10 +10628,10 @@
       <c r="M17">
         <v>6.3E-2</v>
       </c>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>67</v>
       </c>
       <c r="G18">
@@ -10628,163 +10655,163 @@
       <c r="M18">
         <v>2.87E-2</v>
       </c>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>1.4670000000000001</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="40">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="40">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="40">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="40">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="40">
         <v>0.03</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="41">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="Q19" s="42"/>
+      <c r="Q19" s="41"/>
     </row>
     <row r="22" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>1.051031378</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <v>0.225274538</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <v>0.110535912</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <v>5.8002663000000003E-2</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <v>3.4605404999999999E-2</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="31">
         <v>2.0655E-2</v>
       </c>
     </row>
     <row r="24" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>0.25</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="30">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="30">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <v>4</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="30">
         <v>1.0620000000000001</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="30">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="30">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="30">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="30">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="32">
         <v>0.124</v>
       </c>
     </row>
     <row r="26" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <v>0.53800000000000003</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="30">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="30">
         <v>1.54E-2</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="30">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="32">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="30">
         <v>1.4670000000000001</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="30">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="30">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="30">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="30">
         <v>0.03</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="32">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -1658,15 +1658,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="39" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1680,6 +1671,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1818,45 +1818,6 @@
           <color rgb="FFB2B2B2"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="7"/>
-        <name val="Cutive Mono"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cutive Mono"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2204,6 +2165,45 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cutive Mono"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="7"/>
+        <name val="Cutive Mono"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4334,48 +4334,48 @@
     <tableColumn id="23" name="End Point of Reach [km]" dataDxfId="19" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="3"/>
-    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="4" dataCellStyle="Percent">
+    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="18"/>
+    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="17" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="18" dataCellStyle="Note">
+    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="16" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="17" dataCellStyle="Note">
+    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="15" dataCellStyle="Note">
       <calculatedColumnFormula>(Table1[[#This Row],[Tp]]-AN2)*3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Time Cell" dataDxfId="16" dataCellStyle="Note">
+    <tableColumn id="27" name="Time Cell" dataDxfId="14" dataCellStyle="Note">
       <calculatedColumnFormula>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="End Spatial Cell" dataDxfId="15" dataCellStyle="Note">
+    <tableColumn id="37" name="End Spatial Cell" dataDxfId="13" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="14" dataCellStyle="Note">
+    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="12" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Delta T" dataDxfId="13" dataCellStyle="Note">
+    <tableColumn id="28" name="Delta T" dataDxfId="11" dataCellStyle="Note">
       <calculatedColumnFormula>Delta_T__seconds</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Error Ti" dataDxfId="12" dataCellStyle="Percent">
+    <tableColumn id="29" name="Error Ti" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="Error Tp" dataDxfId="11" dataCellStyle="Percent">
+    <tableColumn id="30" name="Error Tp" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="Error Tt" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="31" name="Error Tt" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column1" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="32" name="Column1" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="Vi" dataDxfId="8" dataCellStyle="Note">
+    <tableColumn id="33" name="Vi" dataDxfId="6" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="delta Tp" dataDxfId="7" dataCellStyle="Note">
+    <tableColumn id="34" name="delta Tp" dataDxfId="5" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Column2" dataDxfId="6" dataCellStyle="Note"/>
-    <tableColumn id="36" name="Column3" dataDxfId="5" dataCellStyle="Note">
+    <tableColumn id="35" name="Column2" dataDxfId="4" dataCellStyle="Note"/>
+    <tableColumn id="36" name="Column3" dataDxfId="3" dataCellStyle="Note">
       <calculatedColumnFormula>'Reach Propertise'!$F2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="40" name="Column4" dataDxfId="2" dataCellStyle="Note"/>
@@ -4683,7 +4683,7 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7083,9 +7083,9 @@
   </sheetPr>
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO15" sqref="AO15"/>
+      <selection pane="bottomLeft" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7199,7 +7199,7 @@
       <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="98" t="s">
+      <c r="X1" s="95" t="s">
         <v>116</v>
       </c>
       <c r="Y1" s="17" t="s">
@@ -7250,10 +7250,10 @@
       <c r="AN1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="101" t="s">
+      <c r="AO1" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="AP1" s="101" t="s">
+      <c r="AP1" s="98" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7326,7 +7326,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>1.21</v>
       </c>
-      <c r="X2" s="99">
+      <c r="X2" s="96">
         <v>1.0510314000000001</v>
       </c>
       <c r="Y2" s="76" t="str">
@@ -7391,11 +7391,11 @@
       <c r="AN2" s="75">
         <v>0</v>
       </c>
-      <c r="AO2" s="102">
+      <c r="AO2" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>1</v>
       </c>
-      <c r="AP2" s="102">
+      <c r="AP2" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7470,7 +7470,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>2.1749999999999998</v>
       </c>
-      <c r="X3" s="99">
+      <c r="X3" s="96">
         <v>0.22527449999999999</v>
       </c>
       <c r="Y3" s="76" t="str">
@@ -7535,11 +7535,11 @@
       <c r="AN3" s="75">
         <v>1</v>
       </c>
-      <c r="AO3" s="102">
+      <c r="AO3" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>2</v>
       </c>
-      <c r="AP3" s="102">
+      <c r="AP3" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7614,7 +7614,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>3.875</v>
       </c>
-      <c r="X4" s="100">
+      <c r="X4" s="97">
         <v>0.11053590000000001</v>
       </c>
       <c r="Y4" s="76" t="str">
@@ -7675,11 +7675,11 @@
         <v>1.1333</v>
       </c>
       <c r="AN4" s="75"/>
-      <c r="AO4" s="102">
+      <c r="AO4" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>3</v>
       </c>
-      <c r="AP4" s="102">
+      <c r="AP4" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7754,7 +7754,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>6.2750000000000004</v>
       </c>
-      <c r="X5" s="100">
+      <c r="X5" s="97">
         <v>5.8002699999999997E-2</v>
       </c>
       <c r="Y5" s="76" t="str">
@@ -7815,11 +7815,11 @@
         <v>2.4666999999999999</v>
       </c>
       <c r="AN5" s="75"/>
-      <c r="AO5" s="102">
+      <c r="AO5" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>6</v>
       </c>
-      <c r="AP5" s="102">
+      <c r="AP5" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7894,7 +7894,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>8.7750000000000004</v>
       </c>
-      <c r="X6" s="100">
+      <c r="X6" s="97">
         <v>3.4605400000000001E-2</v>
       </c>
       <c r="Y6" s="76" t="str">
@@ -7955,11 +7955,11 @@
         <v>3.7332999999999998</v>
       </c>
       <c r="AN6" s="75"/>
-      <c r="AO6" s="102">
+      <c r="AO6" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>8</v>
       </c>
-      <c r="AP6" s="102">
+      <c r="AP6" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8034,7 +8034,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>11.275</v>
       </c>
-      <c r="X7" s="100">
+      <c r="X7" s="97">
         <v>2.1080000000000002E-2</v>
       </c>
       <c r="Y7" s="76" t="str">
@@ -8095,11 +8095,11 @@
         <v>5.0332999999999997</v>
       </c>
       <c r="AN7" s="75"/>
-      <c r="AO7" s="102">
+      <c r="AO7" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>11</v>
       </c>
-      <c r="AP7" s="102">
+      <c r="AP7" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8174,7 +8174,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>14.775</v>
       </c>
-      <c r="X8" s="100">
+      <c r="X8" s="97">
         <v>2.0655E-2</v>
       </c>
       <c r="Y8" s="76" t="str">
@@ -8235,11 +8235,11 @@
         <v>6.5369000000000002</v>
       </c>
       <c r="AN8" s="75"/>
-      <c r="AO8" s="102">
+      <c r="AO8" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>14</v>
       </c>
-      <c r="AP8" s="102">
+      <c r="AP8" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8441,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9752,15 +9752,15 @@
     </row>
     <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="44"/>
-      <c r="G28" s="95" t="s">
+      <c r="G28" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="97"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="102"/>
     </row>
     <row r="29" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F29" s="45" t="s">

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -4682,7 +4682,7 @@
   </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -8441,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
   <si>
     <t>Project Name</t>
   </si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t xml:space="preserve">Noori et al. (2017) </t>
-  </si>
-  <si>
-    <t>Reference</t>
   </si>
   <si>
     <t>St1 @ 2.1 (km)</t>
@@ -4683,7 +4680,7 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4931,7 +4928,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="52">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4991,7 +4988,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -7083,9 +7080,9 @@
   </sheetPr>
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO2" sqref="AO2"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7200,7 +7197,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>45</v>
@@ -7251,21 +7248,21 @@
         <v>81</v>
       </c>
       <c r="AO1" s="98" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="98" t="s">
         <v>114</v>
-      </c>
-      <c r="AP1" s="98" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="71">
         <v>0</v>
       </c>
       <c r="C2" s="71">
-        <v>1210</v>
+        <v>210</v>
       </c>
       <c r="D2" s="71">
         <v>7.33</v>
@@ -7307,11 +7304,11 @@
       </c>
       <c r="R2" s="75">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
-        <v>0.37078694452598909</v>
+        <v>6.4351453182196455E-2</v>
       </c>
       <c r="S2" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>4.0349473122582369</v>
+        <v>0.70028011204481799</v>
       </c>
       <c r="T2" s="75">
         <v>1</v>
@@ -7324,7 +7321,7 @@
       </c>
       <c r="W2" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>1.21</v>
+        <v>0.21</v>
       </c>
       <c r="X2" s="96">
         <v>1.0510314000000001</v>
@@ -7335,7 +7332,7 @@
       </c>
       <c r="Z2" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
-        <v>1210</v>
+        <v>210</v>
       </c>
       <c r="AA2" s="75">
         <f>(Table1[[#This Row],[Tp]]-AN2)*3600</f>
@@ -7347,7 +7344,7 @@
       </c>
       <c r="AC2" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>1.21</v>
+        <v>3.5</v>
       </c>
       <c r="AD2" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
@@ -7359,15 +7356,15 @@
       </c>
       <c r="AF2" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
-        <v>-21.247216671559347</v>
+        <v>-2.8610871909317876</v>
       </c>
       <c r="AG2" s="76">
         <f>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</f>
-        <v>-3.4512238238414059</v>
+        <v>0.22747355123413618</v>
       </c>
       <c r="AH2" s="76">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
-        <v>-1.8400702133905547</v>
+        <v>0.507095252221474</v>
       </c>
       <c r="AI2" s="78">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
@@ -7375,7 +7372,7 @@
       </c>
       <c r="AJ2" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>8086.2197455799997</v>
+        <v>485.17318473479997</v>
       </c>
       <c r="AK2" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7393,7 +7390,7 @@
       </c>
       <c r="AO2" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP2" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7402,14 +7399,13 @@
     </row>
     <row r="3" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="71">
-        <f>C2</f>
-        <v>1210</v>
+        <v>210</v>
       </c>
       <c r="C3" s="71">
-        <v>2175</v>
+        <v>1175</v>
       </c>
       <c r="D3" s="71">
         <v>7.03</v>
@@ -7455,7 +7451,7 @@
       </c>
       <c r="S3" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>1.394338026002</v>
+        <v>0.75326307151832184</v>
       </c>
       <c r="T3" s="75">
         <v>1</v>
@@ -7468,7 +7464,7 @@
       </c>
       <c r="W3" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>2.1749999999999998</v>
+        <v>1.175</v>
       </c>
       <c r="X3" s="96">
         <v>0.22527449999999999</v>
@@ -7491,11 +7487,11 @@
       </c>
       <c r="AC3" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>2.1749999999999998</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="AD3" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>1.21</v>
+        <v>3.5</v>
       </c>
       <c r="AE3" s="75">
         <f t="shared" si="0"/>
@@ -7519,7 +7515,7 @@
       </c>
       <c r="AJ3" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>6778.20510053</v>
+        <v>406.6923060318</v>
       </c>
       <c r="AK3" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7537,7 +7533,7 @@
       </c>
       <c r="AO3" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AP3" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7546,14 +7542,13 @@
     </row>
     <row r="4" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="71">
-        <f t="shared" ref="B4:B8" si="1">C3</f>
-        <v>2175</v>
+        <v>1175</v>
       </c>
       <c r="C4" s="71">
-        <v>3875</v>
+        <v>2875</v>
       </c>
       <c r="D4" s="71">
         <v>7.24</v>
@@ -7599,7 +7594,7 @@
       </c>
       <c r="S4" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>0.94978283675010045</v>
+        <v>0.70467758855652618</v>
       </c>
       <c r="T4" s="75">
         <v>1</v>
@@ -7612,7 +7607,7 @@
       </c>
       <c r="W4" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>3.875</v>
+        <v>2.875</v>
       </c>
       <c r="X4" s="97">
         <v>0.11053590000000001</v>
@@ -7635,11 +7630,11 @@
       </c>
       <c r="AC4" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>3.875</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="AD4" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>2.1749999999999998</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="AE4" s="75">
         <f>Delta_T__seconds</f>
@@ -7663,7 +7658,7 @@
       </c>
       <c r="AJ4" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>9500.8611492999989</v>
+        <v>570.05166895799994</v>
       </c>
       <c r="AK4" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7677,7 +7672,7 @@
       <c r="AN4" s="75"/>
       <c r="AO4" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="AP4" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7686,14 +7681,13 @@
     </row>
     <row r="5" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="71">
-        <f t="shared" si="1"/>
-        <v>3875</v>
+        <v>2875</v>
       </c>
       <c r="C5" s="71">
-        <v>6275</v>
+        <v>5275</v>
       </c>
       <c r="D5" s="71">
         <v>7.51</v>
@@ -7739,7 +7733,7 @@
       </c>
       <c r="S5" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>0.70663459502799519</v>
+        <v>0.59402350418688044</v>
       </c>
       <c r="T5" s="75">
         <v>1</v>
@@ -7752,7 +7746,7 @@
       </c>
       <c r="W5" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>6.2750000000000004</v>
+        <v>5.2750000000000004</v>
       </c>
       <c r="X5" s="97">
         <v>5.8002699999999997E-2</v>
@@ -7775,11 +7769,11 @@
       </c>
       <c r="AC5" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>6.2750000000000004</v>
+        <v>87.916666666666671</v>
       </c>
       <c r="AD5" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>3.875</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="AE5" s="75">
         <f>Delta_T__seconds</f>
@@ -7803,7 +7797,7 @@
       </c>
       <c r="AJ5" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>11085.88435308</v>
+        <v>665.15306118480009</v>
       </c>
       <c r="AK5" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7817,7 +7811,7 @@
       <c r="AN5" s="75"/>
       <c r="AO5" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="AP5" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7826,14 +7820,13 @@
     </row>
     <row r="6" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="71">
-        <f t="shared" si="1"/>
-        <v>6275</v>
+        <v>5275</v>
       </c>
       <c r="C6" s="71">
-        <v>8775</v>
+        <v>7775</v>
       </c>
       <c r="D6" s="71">
         <v>9.25</v>
@@ -7879,7 +7872,7 @@
       </c>
       <c r="S6" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>0.65290761524656471</v>
+        <v>0.57850218900763994</v>
       </c>
       <c r="T6" s="75">
         <v>1</v>
@@ -7892,7 +7885,7 @@
       </c>
       <c r="W6" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>8.7750000000000004</v>
+        <v>7.7750000000000004</v>
       </c>
       <c r="X6" s="97">
         <v>3.4605400000000001E-2</v>
@@ -7915,11 +7908,11 @@
       </c>
       <c r="AC6" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>8.7750000000000004</v>
+        <v>129.58333333333334</v>
       </c>
       <c r="AD6" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>6.2750000000000004</v>
+        <v>87.916666666666671</v>
       </c>
       <c r="AE6" s="75">
         <f>Delta_T__seconds</f>
@@ -7943,7 +7936,7 @@
       </c>
       <c r="AJ6" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>18430.574269620003</v>
+        <v>1105.8344561772001</v>
       </c>
       <c r="AK6" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7957,7 +7950,7 @@
       <c r="AN6" s="75"/>
       <c r="AO6" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="AP6" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7966,14 +7959,13 @@
     </row>
     <row r="7" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="71">
-        <f t="shared" si="1"/>
-        <v>8775</v>
+        <v>7775</v>
       </c>
       <c r="C7" s="71">
-        <v>11275</v>
+        <v>10275</v>
       </c>
       <c r="D7" s="71">
         <v>9.8000000000000007</v>
@@ -8019,7 +8011,7 @@
       </c>
       <c r="S7" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>0.62224473892763099</v>
+        <v>0.56705673547506941</v>
       </c>
       <c r="T7" s="75">
         <v>1</v>
@@ -8032,7 +8024,7 @@
       </c>
       <c r="W7" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>11.275</v>
+        <v>10.275</v>
       </c>
       <c r="X7" s="97">
         <v>2.1080000000000002E-2</v>
@@ -8055,11 +8047,11 @@
       </c>
       <c r="AC7" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>11.275</v>
+        <v>171.25</v>
       </c>
       <c r="AD7" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>8.7750000000000004</v>
+        <v>129.58333333333334</v>
       </c>
       <c r="AE7" s="75">
         <f>Delta_T__seconds</f>
@@ -8083,7 +8075,7 @@
       </c>
       <c r="AJ7" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>13132.06423686</v>
+        <v>787.92385421159997</v>
       </c>
       <c r="AK7" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8097,7 +8089,7 @@
       <c r="AN7" s="75"/>
       <c r="AO7" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="AP7" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8106,14 +8098,13 @@
     </row>
     <row r="8" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="71">
-        <f t="shared" si="1"/>
-        <v>11275</v>
+        <v>10275</v>
       </c>
       <c r="C8" s="71">
-        <v>14775</v>
+        <v>13775</v>
       </c>
       <c r="D8" s="71">
         <v>10</v>
@@ -8159,7 +8150,7 @@
       </c>
       <c r="S8" s="75">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
-        <v>0.62784602283447299</v>
+        <v>0.58535221418239358</v>
       </c>
       <c r="T8" s="75">
         <v>1</v>
@@ -8172,7 +8163,7 @@
       </c>
       <c r="W8" s="83">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
-        <v>14.775</v>
+        <v>13.775</v>
       </c>
       <c r="X8" s="97">
         <v>2.0655E-2</v>
@@ -8195,11 +8186,11 @@
       </c>
       <c r="AC8" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>14.775</v>
+        <v>229.58333333333334</v>
       </c>
       <c r="AD8" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>11.275</v>
+        <v>171.25</v>
       </c>
       <c r="AE8" s="75">
         <f>Delta_T__seconds</f>
@@ -8223,7 +8214,7 @@
       </c>
       <c r="AJ8" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>14727.162258419998</v>
+        <v>883.62973550519985</v>
       </c>
       <c r="AK8" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8237,7 +8228,7 @@
       <c r="AN8" s="75"/>
       <c r="AO8" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="AP8" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8467,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8571,7 +8562,7 @@
         <v>400</v>
       </c>
       <c r="P12" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8651,7 +8642,7 @@
         <v>1000</v>
       </c>
       <c r="P22" s="92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Initial Concentration" sheetId="10" r:id="rId3"/>
     <sheet name="Loading" sheetId="3" r:id="rId4"/>
     <sheet name="hidden tab" sheetId="11" r:id="rId5"/>
-    <sheet name="LDC" sheetId="12" state="hidden" r:id="rId6"/>
+    <sheet name="LDC" sheetId="12" r:id="rId6"/>
     <sheet name="چاتا" sheetId="14" state="hidden" r:id="rId7"/>
     <sheet name="ماکیناو" sheetId="15" state="hidden" r:id="rId8"/>
     <sheet name="سورن سفارش نوری" sheetId="13" state="hidden" r:id="rId9"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
   <si>
     <t>Project Name</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM</t>
+  </si>
+  <si>
+    <t>Li et al. (1998) [1]</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1403,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1678,6 +1681,9 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4679,7 +4685,7 @@
   </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -8690,39 +8696,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0.68015664268852827</v>
-      </c>
-      <c r="B1">
-        <v>477.46693407985373</v>
-      </c>
-      <c r="C1">
-        <v>53.346954629423969</v>
-      </c>
-      <c r="D1">
-        <v>304.13112320061464</v>
-      </c>
-      <c r="E1">
-        <v>289.00931689732261</v>
-      </c>
-      <c r="F1">
-        <v>329.36654855455089</v>
-      </c>
-      <c r="G1">
-        <v>245.07766456223783</v>
-      </c>
-      <c r="H1">
-        <v>158.99861477403562</v>
-      </c>
-      <c r="I1">
-        <v>62.154225534519455</v>
+    <row r="1" spans="1:24" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>Project Name</t>
   </si>
@@ -456,6 +456,18 @@
   </si>
   <si>
     <t>Li et al. (1998) [1]</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Working?</t>
+  </si>
+  <si>
+    <t>Nay :X</t>
+  </si>
+  <si>
+    <t>Yay :D</t>
   </si>
 </sst>
 </file>
@@ -723,12 +735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Cutive Mono"/>
@@ -754,9 +760,16 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1403,7 +1416,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1591,45 +1604,45 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1640,38 +1653,43 @@
     <xf numFmtId="164" fontId="20" fillId="32" borderId="7" xfId="37" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="39" borderId="12" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1681,9 +1699,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1732,7 +1747,73 @@
     <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <name val="Calibri Light"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4303,93 +4384,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AP8" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42" headerRowCellStyle="Note" dataCellStyle="Note">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AP8" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47" headerRowCellStyle="Note" dataCellStyle="Note">
   <autoFilter ref="A1:AP8"/>
   <tableColumns count="42">
-    <tableColumn id="1" name="Name" dataDxfId="41"/>
-    <tableColumn id="2" name="Start point distance [meters]" dataDxfId="40"/>
-    <tableColumn id="3" name="End Point distance  [meters]" dataDxfId="39" dataCellStyle="Note"/>
-    <tableColumn id="4" name="Q [m3/sec]" dataDxfId="38"/>
-    <tableColumn id="5" name="Ti" dataDxfId="37" dataCellStyle="Note"/>
-    <tableColumn id="6" name="Tp" dataDxfId="36"/>
-    <tableColumn id="7" name="Tt" dataDxfId="35" dataCellStyle="Note"/>
-    <tableColumn id="8" name="Q average" dataDxfId="34" dataCellStyle="Note"/>
-    <tableColumn id="9" name="Drainage Area [km2]" dataDxfId="33" dataCellStyle="Note"/>
-    <tableColumn id="10" name="longitudinal slope" dataDxfId="32"/>
-    <tableColumn id="11" name="depth [meters]" dataDxfId="31"/>
-    <tableColumn id="12" name="width [meters]" dataDxfId="30"/>
-    <tableColumn id="13" name="Cup" dataDxfId="29"/>
-    <tableColumn id="14" name="Inj Mass" dataDxfId="28" dataCellStyle="Note"/>
-    <tableColumn id="15" name="R ratio" dataDxfId="27" dataCellStyle="Note"/>
-    <tableColumn id="16" name="Ref" dataDxfId="26" dataCellStyle="Note"/>
-    <tableColumn id="17" name="Calculated Velocity [meters/sec]" dataDxfId="25">
+    <tableColumn id="1" name="Name" dataDxfId="46"/>
+    <tableColumn id="2" name="Start point distance [meters]" dataDxfId="45"/>
+    <tableColumn id="3" name="End Point distance  [meters]" dataDxfId="44" dataCellStyle="Note"/>
+    <tableColumn id="4" name="Q [m3/sec]" dataDxfId="43"/>
+    <tableColumn id="5" name="Ti" dataDxfId="42" dataCellStyle="Note"/>
+    <tableColumn id="6" name="Tp" dataDxfId="41"/>
+    <tableColumn id="7" name="Tt" dataDxfId="40" dataCellStyle="Note"/>
+    <tableColumn id="8" name="Q average" dataDxfId="39" dataCellStyle="Note"/>
+    <tableColumn id="9" name="Drainage Area [km2]" dataDxfId="38" dataCellStyle="Note"/>
+    <tableColumn id="10" name="longitudinal slope" dataDxfId="37"/>
+    <tableColumn id="11" name="depth [meters]" dataDxfId="36"/>
+    <tableColumn id="12" name="width [meters]" dataDxfId="35"/>
+    <tableColumn id="13" name="Cup" dataDxfId="34"/>
+    <tableColumn id="14" name="Inj Mass" dataDxfId="33" dataCellStyle="Note"/>
+    <tableColumn id="15" name="R ratio" dataDxfId="32" dataCellStyle="Note"/>
+    <tableColumn id="16" name="Ref" dataDxfId="31" dataCellStyle="Note"/>
+    <tableColumn id="17" name="Calculated Velocity [meters/sec]" dataDxfId="30">
       <calculatedColumnFormula>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="calculated time [hours]" dataDxfId="24" dataCellStyle="Note">
+    <tableColumn id="18" name="calculated time [hours]" dataDxfId="29" dataCellStyle="Note">
       <calculatedColumnFormula>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Observed Velocity [meters / seconds]" dataDxfId="23" dataCellStyle="Note">
+    <tableColumn id="19" name="Observed Velocity [meters / seconds]" dataDxfId="28" dataCellStyle="Note">
       <calculatedColumnFormula>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="ɳ" dataDxfId="22"/>
-    <tableColumn id="21" name="river side slope" dataDxfId="21"/>
-    <tableColumn id="22" name="Initial Concentration [mgr/Lit]" dataDxfId="20"/>
-    <tableColumn id="23" name="End Point of Reach [km]" dataDxfId="19" dataCellStyle="Note">
+    <tableColumn id="20" name="ɳ" dataDxfId="27"/>
+    <tableColumn id="21" name="river side slope" dataDxfId="26"/>
+    <tableColumn id="22" name="Initial Concentration [mgr/Lit]" dataDxfId="25"/>
+    <tableColumn id="23" name="End Point of Reach [km]" dataDxfId="24" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="18"/>
-    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="17" dataCellStyle="Percent">
+    <tableColumn id="24" name="Only Observed Concentration (if you had losses and want to use formula look @ AP column) PPM" dataDxfId="23"/>
+    <tableColumn id="25" name="Error in Calc time Vs Obs Time" dataDxfId="22" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="16" dataCellStyle="Note">
+    <tableColumn id="26" name="Reach Length [meters]" dataDxfId="21" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="15" dataCellStyle="Note">
+    <tableColumn id="39" name="Reach Time (seconds)" dataDxfId="20" dataCellStyle="Note">
       <calculatedColumnFormula>(Table1[[#This Row],[Tp]]-AN2)*3600</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Time Cell" dataDxfId="14" dataCellStyle="Note">
+    <tableColumn id="27" name="Time Cell" dataDxfId="19" dataCellStyle="Note">
       <calculatedColumnFormula>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="End Spatial Cell" dataDxfId="13" dataCellStyle="Note">
+    <tableColumn id="37" name="End Spatial Cell" dataDxfId="18" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="12" dataCellStyle="Note">
+    <tableColumn id="38" name="Start Spatial Cell" dataDxfId="17" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Delta T" dataDxfId="11" dataCellStyle="Note">
+    <tableColumn id="28" name="Delta T" dataDxfId="16" dataCellStyle="Note">
       <calculatedColumnFormula>Delta_T__seconds</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Error Ti" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="29" name="Error Ti" dataDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="Error Tp" dataDxfId="9" dataCellStyle="Percent">
+    <tableColumn id="30" name="Error Tp" dataDxfId="14" dataCellStyle="Percent">
       <calculatedColumnFormula>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="Error Tt" dataDxfId="8" dataCellStyle="Percent">
+    <tableColumn id="31" name="Error Tt" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Column1" dataDxfId="7" dataCellStyle="Percent">
+    <tableColumn id="32" name="Column1" dataDxfId="12" dataCellStyle="Percent">
       <calculatedColumnFormula>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="Vi" dataDxfId="6" dataCellStyle="Note">
+    <tableColumn id="33" name="Vi" dataDxfId="11" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" name="delta Tp" dataDxfId="5" dataCellStyle="Note">
+    <tableColumn id="34" name="delta Tp" dataDxfId="10" dataCellStyle="Note">
       <calculatedColumnFormula>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="Column2" dataDxfId="4" dataCellStyle="Note"/>
-    <tableColumn id="36" name="Column3" dataDxfId="3" dataCellStyle="Note">
+    <tableColumn id="35" name="Column2" dataDxfId="9" dataCellStyle="Note"/>
+    <tableColumn id="36" name="Column3" dataDxfId="8" dataCellStyle="Note">
       <calculatedColumnFormula>'Reach Propertise'!$F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" name="Column4" dataDxfId="2" dataCellStyle="Note"/>
-    <tableColumn id="41" name="X cells for evaluation and comparison with obsered" dataDxfId="1" dataCellStyle="Note">
+    <tableColumn id="40" name="Column4" dataDxfId="7" dataCellStyle="Note"/>
+    <tableColumn id="41" name="X cells for evaluation and comparison with obsered" dataDxfId="6" dataCellStyle="Note">
       <calculatedColumnFormula>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" name="Observed Concentration [ppm] using formula2" dataDxfId="0" dataCellStyle="Note">
+    <tableColumn id="42" name="Observed Concentration [ppm] using formula2" dataDxfId="5" dataCellStyle="Note">
       <calculatedColumnFormula>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="O2:Q22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="O2:Q22"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="index" dataDxfId="2"/>
+    <tableColumn id="2" name="Choose From References" dataDxfId="1" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" name="Working?" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4686,7 +4779,7 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7086,7 +7179,7 @@
   </sheetPr>
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -7202,7 +7295,7 @@
       <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="95" t="s">
+      <c r="X1" s="89" t="s">
         <v>115</v>
       </c>
       <c r="Y1" s="17" t="s">
@@ -7253,10 +7346,10 @@
       <c r="AN1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="98" t="s">
+      <c r="AO1" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="AP1" s="98" t="s">
+      <c r="AP1" s="92" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7329,7 +7422,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>0.21</v>
       </c>
-      <c r="X2" s="96">
+      <c r="X2" s="90">
         <v>1.0510314000000001</v>
       </c>
       <c r="Y2" s="76" t="str">
@@ -7394,11 +7487,11 @@
       <c r="AN2" s="75">
         <v>0</v>
       </c>
-      <c r="AO2" s="99">
+      <c r="AO2" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>3</v>
       </c>
-      <c r="AP2" s="99">
+      <c r="AP2" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7472,7 +7565,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>1.175</v>
       </c>
-      <c r="X3" s="96">
+      <c r="X3" s="90">
         <v>0.22527449999999999</v>
       </c>
       <c r="Y3" s="76" t="str">
@@ -7537,11 +7630,11 @@
       <c r="AN3" s="75">
         <v>1</v>
       </c>
-      <c r="AO3" s="99">
+      <c r="AO3" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>19</v>
       </c>
-      <c r="AP3" s="99">
+      <c r="AP3" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7615,7 +7708,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>2.875</v>
       </c>
-      <c r="X4" s="97">
+      <c r="X4" s="91">
         <v>0.11053590000000001</v>
       </c>
       <c r="Y4" s="76" t="str">
@@ -7676,11 +7769,11 @@
         <v>1.1333</v>
       </c>
       <c r="AN4" s="75"/>
-      <c r="AO4" s="99">
+      <c r="AO4" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>47</v>
       </c>
-      <c r="AP4" s="99">
+      <c r="AP4" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7754,7 +7847,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>5.2750000000000004</v>
       </c>
-      <c r="X5" s="97">
+      <c r="X5" s="91">
         <v>5.8002699999999997E-2</v>
       </c>
       <c r="Y5" s="76" t="str">
@@ -7815,11 +7908,11 @@
         <v>2.4666999999999999</v>
       </c>
       <c r="AN5" s="75"/>
-      <c r="AO5" s="99">
+      <c r="AO5" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>87</v>
       </c>
-      <c r="AP5" s="99">
+      <c r="AP5" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -7893,7 +7986,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>7.7750000000000004</v>
       </c>
-      <c r="X6" s="97">
+      <c r="X6" s="91">
         <v>3.4605400000000001E-2</v>
       </c>
       <c r="Y6" s="76" t="str">
@@ -7954,11 +8047,11 @@
         <v>3.7332999999999998</v>
       </c>
       <c r="AN6" s="75"/>
-      <c r="AO6" s="99">
+      <c r="AO6" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>129</v>
       </c>
-      <c r="AP6" s="99">
+      <c r="AP6" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8032,7 +8125,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>10.275</v>
       </c>
-      <c r="X7" s="97">
+      <c r="X7" s="91">
         <v>2.1080000000000002E-2</v>
       </c>
       <c r="Y7" s="76" t="str">
@@ -8093,11 +8186,11 @@
         <v>5.0332999999999997</v>
       </c>
       <c r="AN7" s="75"/>
-      <c r="AO7" s="99">
+      <c r="AO7" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>171</v>
       </c>
-      <c r="AP7" s="99">
+      <c r="AP7" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8171,7 +8264,7 @@
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>13.775</v>
       </c>
-      <c r="X8" s="97">
+      <c r="X8" s="91">
         <v>2.0655E-2</v>
       </c>
       <c r="Y8" s="76" t="str">
@@ -8232,11 +8325,11 @@
         <v>6.5369000000000002</v>
       </c>
       <c r="AN8" s="75"/>
-      <c r="AO8" s="99">
+      <c r="AO8" s="93">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>229</v>
       </c>
-      <c r="AP8" s="99">
+      <c r="AP8" s="93">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
@@ -8436,235 +8529,365 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="N2" s="95"/>
+      <c r="O2" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" s="100" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q2" s="99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="N3" s="95"/>
+      <c r="O3" s="99">
+        <v>1</v>
+      </c>
+      <c r="P3" s="101" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H4">
         <v>25</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="N4" s="95"/>
+      <c r="O4" s="99">
+        <v>2</v>
+      </c>
+      <c r="P4" s="101" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="P5" s="90" t="s">
+      <c r="N5" s="95"/>
+      <c r="O5" s="99">
+        <v>3</v>
+      </c>
+      <c r="P5" s="101" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
-      <c r="P6" s="90" t="s">
+      <c r="N6" s="95"/>
+      <c r="O6" s="99">
+        <v>4</v>
+      </c>
+      <c r="P6" s="101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="N7" s="95"/>
+      <c r="O7" s="99">
+        <v>5</v>
+      </c>
+      <c r="P7" s="101" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="99"/>
+    </row>
+    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="H8">
         <v>200</v>
       </c>
-      <c r="P8" s="90" t="s">
+      <c r="N8" s="95"/>
+      <c r="O8" s="99">
+        <v>6</v>
+      </c>
+      <c r="P8" s="101" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="99"/>
+    </row>
+    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="P9" s="90" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="99">
+        <v>7</v>
+      </c>
+      <c r="P9" s="101" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="99"/>
+    </row>
+    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H10">
         <v>300</v>
       </c>
-      <c r="P10" s="90" t="s">
+      <c r="N10" s="95"/>
+      <c r="O10" s="99">
+        <v>8</v>
+      </c>
+      <c r="P10" s="101" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="99"/>
+    </row>
+    <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H11">
         <v>350</v>
       </c>
-      <c r="P11" s="90" t="s">
+      <c r="N11" s="95"/>
+      <c r="O11" s="99">
+        <v>9</v>
+      </c>
+      <c r="P11" s="101" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="99"/>
+    </row>
+    <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H12">
         <v>400</v>
       </c>
-      <c r="P12" s="91" t="s">
+      <c r="N12" s="95"/>
+      <c r="O12" s="99">
+        <v>10</v>
+      </c>
+      <c r="P12" s="102" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="99"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H13">
         <v>450</v>
       </c>
-      <c r="P13" s="90" t="s">
+      <c r="N13" s="95"/>
+      <c r="O13" s="99">
+        <v>11</v>
+      </c>
+      <c r="P13" s="101" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="99"/>
+    </row>
+    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H14">
         <v>500</v>
       </c>
-      <c r="P14" s="90" t="s">
+      <c r="N14" s="95"/>
+      <c r="O14" s="99">
+        <v>12</v>
+      </c>
+      <c r="P14" s="101" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="99"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>550</v>
       </c>
-      <c r="P15" s="90" t="s">
+      <c r="N15" s="95"/>
+      <c r="O15" s="99">
+        <v>13</v>
+      </c>
+      <c r="P15" s="101" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="P16" s="90" t="s">
+      <c r="N16" s="95"/>
+      <c r="O16" s="99">
+        <v>14</v>
+      </c>
+      <c r="P16" s="101" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="99"/>
+    </row>
+    <row r="17" spans="8:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>650</v>
       </c>
-      <c r="P17" s="90" t="s">
+      <c r="N17" s="95"/>
+      <c r="O17" s="99">
+        <v>15</v>
+      </c>
+      <c r="P17" s="101" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="99"/>
+    </row>
+    <row r="18" spans="8:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>700</v>
       </c>
-      <c r="P18" s="90" t="s">
+      <c r="N18" s="95"/>
+      <c r="O18" s="99">
+        <v>16</v>
+      </c>
+      <c r="P18" s="101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="99"/>
+    </row>
+    <row r="19" spans="8:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>750</v>
       </c>
-      <c r="P19" s="90" t="s">
+      <c r="N19" s="95"/>
+      <c r="O19" s="99">
+        <v>17</v>
+      </c>
+      <c r="P19" s="101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="99"/>
+    </row>
+    <row r="20" spans="8:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>800</v>
       </c>
-      <c r="P20" s="90" t="s">
+      <c r="N20" s="95"/>
+      <c r="O20" s="99">
+        <v>18</v>
+      </c>
+      <c r="P20" s="101" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="99"/>
+    </row>
+    <row r="21" spans="8:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H21">
         <v>900</v>
       </c>
-      <c r="P21" s="90" t="s">
+      <c r="N21" s="95"/>
+      <c r="O21" s="99">
+        <v>19</v>
+      </c>
+      <c r="P21" s="101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="99"/>
+    </row>
+    <row r="22" spans="8:17" ht="21" x14ac:dyDescent="0.35">
       <c r="H22">
         <v>1000</v>
       </c>
-      <c r="P22" s="92" t="s">
+      <c r="N22" s="95"/>
+      <c r="O22" s="99">
+        <v>20</v>
+      </c>
+      <c r="P22" s="102" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="Q22" s="99"/>
+    </row>
+    <row r="23" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1250</v>
       </c>
-      <c r="P23" s="92"/>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="95"/>
+    </row>
+    <row r="24" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1500</v>
       </c>
-      <c r="P24" s="93"/>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.25">
-      <c r="P25" s="94"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="95"/>
+    </row>
+    <row r="25" spans="8:17" x14ac:dyDescent="0.25">
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="98"/>
+      <c r="Q25" s="95"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8689,6 +8912,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8696,68 +8922,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="I1" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="O1" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="P1" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="Q1" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="R1" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="S1" s="94" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9779,15 +10005,15 @@
     </row>
     <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F28" s="44"/>
-      <c r="G28" s="100" t="s">
+      <c r="G28" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="102"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="105"/>
     </row>
     <row r="29" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F29" s="45" t="s">

--- a/watum_development_mode.xlsx
+++ b/watum_development_mode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="142">
   <si>
     <t>Project Name</t>
   </si>
@@ -437,9 +437,6 @@
     <t>St7 @ 13.775 (km)</t>
   </si>
   <si>
-    <t>Li et al. 2 (1998)</t>
-  </si>
-  <si>
     <t>None Dispersive Model</t>
   </si>
   <si>
@@ -461,13 +458,79 @@
     <t>index</t>
   </si>
   <si>
-    <t>Working?</t>
-  </si>
-  <si>
-    <t>Nay :X</t>
-  </si>
-  <si>
-    <t>Yay :D</t>
+    <t>Li et al (1998)</t>
+  </si>
+  <si>
+    <t>Li et al 2 (1998)</t>
+  </si>
+  <si>
+    <t>Deng et al (2001)</t>
+  </si>
+  <si>
+    <t>Disley et al (2015)</t>
+  </si>
+  <si>
+    <t>Noori et al (2017)</t>
+  </si>
+  <si>
+    <t>MATLAB mfile names</t>
+  </si>
+  <si>
+    <t>Dx_1959_Elder.m</t>
+  </si>
+  <si>
+    <t>Dx_1966_Fischer.m</t>
+  </si>
+  <si>
+    <t>Dx_1974_McQuivey_and_Keefer.m</t>
+  </si>
+  <si>
+    <t>Dx_1975_Fischer.m</t>
+  </si>
+  <si>
+    <t>Dx_1977_Liu.m</t>
+  </si>
+  <si>
+    <t>Dx_1988_Koussis_and_Rodriguez_Mirasol.m</t>
+  </si>
+  <si>
+    <t>Dx_1991_Iwasa_and_Aya.m</t>
+  </si>
+  <si>
+    <t>Dx_1998_Seo_and_Cheong.m</t>
+  </si>
+  <si>
+    <t>Dx_1998_Li_et_al.m</t>
+  </si>
+  <si>
+    <t>Dx_1998_v2_Li_et_al.m</t>
+  </si>
+  <si>
+    <t>Dx_2001_Deng_et_al.m</t>
+  </si>
+  <si>
+    <t>Dx_2002_Kashefipour_and_Falconer.m</t>
+  </si>
+  <si>
+    <t>Dx_2007_Tavakollizadeh_and_Kashefipur.m</t>
+  </si>
+  <si>
+    <t>Dx_2009_Sahay_and_Dutta.m</t>
+  </si>
+  <si>
+    <t>Dx_2011_Azamathulla_and_Wu.m</t>
+  </si>
+  <si>
+    <t>Dx_2012_Etemadshahidi_and_Taghipour.m</t>
+  </si>
+  <si>
+    <t>Dx_2014_Zeng_and_Huai.m</t>
+  </si>
+  <si>
+    <t>Dx_2015_Disley.m</t>
+  </si>
+  <si>
+    <t>Dx_2017_Noori_et_al.m</t>
   </si>
 </sst>
 </file>
@@ -477,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +829,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
       <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <name val="Calibri Light"/>
       <family val="2"/>
     </font>
@@ -995,7 +1070,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1369,6 +1444,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1416,7 +1506,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1478,7 +1568,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="29" fillId="37" borderId="11" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1516,9 +1605,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1668,29 +1754,8 @@
     <xf numFmtId="0" fontId="37" fillId="39" borderId="7" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,6 +1764,39 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1760,6 +1858,7 @@
         <name val="Calibri Light"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1769,7 +1868,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="18"/>
         <name val="Calibri Light"/>
         <scheme val="none"/>
       </font>
@@ -4480,7 +4579,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="index" dataDxfId="2"/>
     <tableColumn id="2" name="Choose From References" dataDxfId="1" dataCellStyle="Hyperlink"/>
-    <tableColumn id="3" name="Working?" dataDxfId="0"/>
+    <tableColumn id="3" name="MATLAB mfile names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4778,20 +4877,20 @@
   </sheetPr>
   <dimension ref="A1:X91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" style="54" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="48"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -4819,7 +4918,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="47" t="str">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
         <v>watum_development_mode.xlsx</v>
       </c>
@@ -4850,7 +4949,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="88">
+      <c r="B3" s="86">
         <f>DATE(2019,1,10)</f>
         <v>43475</v>
       </c>
@@ -4881,7 +4980,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
@@ -4911,7 +5010,7 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5"/>
@@ -4941,7 +5040,7 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="50" t="str">
+      <c r="B6" s="48" t="str">
         <f ca="1">LEFT(CELL("filename"),FIND("[",CELL("filename"),1)-1)</f>
         <v>C:\Users\Mostafa\Desktop\watum_Working_Branch\</v>
       </c>
@@ -4970,7 +5069,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-      <c r="B7" s="51"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4998,7 +5097,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="48"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5026,7 +5125,7 @@
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="50">
         <v>60</v>
       </c>
       <c r="C9" s="5"/>
@@ -5056,7 +5155,7 @@
       <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="50">
         <v>5</v>
       </c>
       <c r="C10" s="5"/>
@@ -5086,7 +5185,7 @@
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="51" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="5"/>
@@ -5116,7 +5215,7 @@
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="50">
         <v>50</v>
       </c>
       <c r="C12" s="5"/>
@@ -5146,7 +5245,7 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="52">
         <v>0</v>
       </c>
       <c r="C13" s="5"/>
@@ -5176,7 +5275,7 @@
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="50">
         <v>0.5</v>
       </c>
       <c r="C14" s="5"/>
@@ -5204,7 +5303,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-      <c r="B15" s="51"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -5230,7 +5329,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-      <c r="B16" s="51"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -5256,7 +5355,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="51"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -5282,7 +5381,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="51"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -5308,7 +5407,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5334,7 +5433,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="55"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -5360,7 +5459,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -5386,7 +5485,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="51"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -5412,7 +5511,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -5438,7 +5537,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -5464,7 +5563,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5490,7 +5589,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -5516,7 +5615,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="51"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -5542,7 +5641,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
-      <c r="B28" s="51"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -5568,7 +5667,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -5594,7 +5693,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
-      <c r="B30" s="51"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -5620,7 +5719,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="51"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -5646,7 +5745,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="51"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -5672,7 +5771,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="51"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -5698,7 +5797,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -5724,7 +5823,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="51"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -5750,7 +5849,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="51"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -5776,7 +5875,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="51"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -5802,7 +5901,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="51"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -5828,7 +5927,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -5854,7 +5953,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="51"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -5880,7 +5979,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="51"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -5906,7 +6005,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="51"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -5932,7 +6031,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
-      <c r="B43" s="51"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -5958,7 +6057,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
-      <c r="B44" s="51"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -5984,7 +6083,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
-      <c r="B45" s="51"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -6010,7 +6109,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -6036,7 +6135,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
-      <c r="B47" s="51"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -6062,7 +6161,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
-      <c r="B48" s="51"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -6088,7 +6187,7 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
-      <c r="B49" s="51"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -6114,7 +6213,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
-      <c r="B50" s="51"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -6140,7 +6239,7 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -6166,7 +6265,7 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
-      <c r="B52" s="51"/>
+      <c r="B52" s="49"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -6192,7 +6291,7 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
-      <c r="B53" s="51"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -6218,7 +6317,7 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
-      <c r="B54" s="51"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -6244,7 +6343,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
-      <c r="B55" s="51"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -6270,7 +6369,7 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -6296,7 +6395,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
-      <c r="B57" s="51"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -6322,7 +6421,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
-      <c r="B58" s="51"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -6348,7 +6447,7 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
-      <c r="B59" s="51"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -6374,7 +6473,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
-      <c r="B60" s="51"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -6400,7 +6499,7 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="49"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -6426,7 +6525,7 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
-      <c r="B62" s="51"/>
+      <c r="B62" s="49"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -6452,7 +6551,7 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
-      <c r="B63" s="51"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -7179,53 +7278,53 @@
   </sheetPr>
   <dimension ref="A1:AP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="AP2" sqref="AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="62" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="62" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="62" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="62" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="62" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" style="62" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="62" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="62" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" style="62" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="62" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" style="62" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" style="62" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="62" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="62"/>
-    <col min="21" max="21" width="21.42578125" style="62" customWidth="1"/>
-    <col min="22" max="22" width="38.5703125" style="62" customWidth="1"/>
-    <col min="23" max="23" width="29.42578125" style="62" customWidth="1"/>
-    <col min="24" max="24" width="41.140625" style="63" customWidth="1"/>
-    <col min="25" max="25" width="17.140625" style="64" customWidth="1"/>
-    <col min="26" max="27" width="19.42578125" style="62" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" style="62" customWidth="1"/>
-    <col min="29" max="30" width="12.140625" style="62" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" style="62" customWidth="1"/>
-    <col min="32" max="34" width="12.28515625" style="62" customWidth="1"/>
-    <col min="35" max="35" width="11.140625" style="62" customWidth="1"/>
-    <col min="36" max="36" width="9.140625" style="62"/>
-    <col min="37" max="37" width="12.28515625" style="62" customWidth="1"/>
-    <col min="38" max="39" width="11.140625" style="62" customWidth="1"/>
-    <col min="40" max="40" width="9.140625" style="62"/>
-    <col min="41" max="41" width="30.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="26.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="23.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="60" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="60" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="60" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="60" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="60" customWidth="1"/>
+    <col min="11" max="12" width="19.140625" style="60" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="60" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="60" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="60" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="60" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" style="60" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" style="60" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" style="60" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="60"/>
+    <col min="21" max="21" width="21.42578125" style="60" customWidth="1"/>
+    <col min="22" max="22" width="38.5703125" style="60" customWidth="1"/>
+    <col min="23" max="23" width="29.42578125" style="60" customWidth="1"/>
+    <col min="24" max="24" width="41.140625" style="61" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" style="62" customWidth="1"/>
+    <col min="26" max="27" width="19.42578125" style="60" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="60" customWidth="1"/>
+    <col min="29" max="30" width="12.140625" style="60" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" style="60" customWidth="1"/>
+    <col min="32" max="34" width="12.28515625" style="60" customWidth="1"/>
+    <col min="35" max="35" width="11.140625" style="60" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="60"/>
+    <col min="37" max="37" width="12.28515625" style="60" customWidth="1"/>
+    <col min="38" max="39" width="11.140625" style="60" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="60"/>
+    <col min="41" max="41" width="30.140625" style="60" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="26.5703125" style="60" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="66" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="64" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
@@ -7295,8 +7394,8 @@
       <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="89" t="s">
-        <v>115</v>
+      <c r="X1" s="87" t="s">
+        <v>114</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>45</v>
@@ -7307,13 +7406,13 @@
       <c r="AA1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AB1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="26" t="s">
+      <c r="AD1" s="25" t="s">
         <v>74</v>
       </c>
       <c r="AE1" s="18" t="s">
@@ -7343,1008 +7442,1008 @@
       <c r="AM1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="65" t="s">
+      <c r="AN1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="92" t="s">
+      <c r="AO1" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="AP1" s="92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    </row>
+    <row r="2" spans="1:42" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="69">
         <v>0</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="69">
         <v>210</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="69">
         <v>7.33</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="69">
         <f>(1/5)*(0.3)*1000/3600</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="69">
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="69">
         <f>(1/5)*(2.35)*1000/3600</f>
         <v>0.13055555555555556</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="69">
         <v>7.33</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72">
+      <c r="I2" s="69"/>
+      <c r="J2" s="70">
         <f>142.8/10000</f>
         <v>1.4280000000000001E-2</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="70">
         <v>0.46241399999999999</v>
       </c>
-      <c r="L2" s="72">
+      <c r="L2" s="70">
         <v>17.486969999999999</v>
       </c>
-      <c r="M2" s="72">
+      <c r="M2" s="70">
         <v>1.0510314000000001</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74">
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="72">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.90648043593010741</v>
       </c>
-      <c r="R2" s="75">
+      <c r="R2" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>6.4351453182196455E-2</v>
       </c>
-      <c r="S2" s="75">
+      <c r="S2" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.70028011204481799</v>
       </c>
-      <c r="T2" s="75">
+      <c r="T2" s="73">
         <v>1</v>
       </c>
-      <c r="U2" s="75">
+      <c r="U2" s="73">
         <v>0</v>
       </c>
-      <c r="V2" s="75">
+      <c r="V2" s="73">
         <v>0</v>
       </c>
-      <c r="W2" s="75">
+      <c r="W2" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>0.21</v>
       </c>
-      <c r="X2" s="90">
+      <c r="X2" s="88">
         <v>1.0510314000000001</v>
       </c>
-      <c r="Y2" s="76" t="str">
+      <c r="Y2" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z2" s="75">
+      <c r="Z2" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>210</v>
       </c>
-      <c r="AA2" s="75">
+      <c r="AA2" s="73">
         <f>(Table1[[#This Row],[Tp]]-AN2)*3600</f>
         <v>299.88</v>
       </c>
-      <c r="AB2" s="77">
+      <c r="AB2" s="75">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>59</v>
       </c>
-      <c r="AC2" s="77">
+      <c r="AC2" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>3.5</v>
       </c>
-      <c r="AD2" s="77">
+      <c r="AD2" s="75">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>0</v>
       </c>
-      <c r="AE2" s="75">
+      <c r="AE2" s="73">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF2" s="76">
+      <c r="AF2" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>-2.8610871909317876</v>
       </c>
-      <c r="AG2" s="76">
+      <c r="AG2" s="74">
         <f>(('Reach Propertise'!$F2-'Reach Propertise'!$R2)/'Reach Propertise'!$F2)</f>
         <v>0.22747355123413618</v>
       </c>
-      <c r="AH2" s="76">
+      <c r="AH2" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.507095252221474</v>
       </c>
-      <c r="AI2" s="78">
+      <c r="AI2" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>37.816696726310191</v>
       </c>
-      <c r="AJ2" s="75">
+      <c r="AJ2" s="73">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>485.17318473479997</v>
       </c>
-      <c r="AK2" s="75">
+      <c r="AK2" s="73">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AL2" s="75">
+      <c r="AL2" s="73">
         <v>0</v>
       </c>
-      <c r="AM2" s="75">
+      <c r="AM2" s="73">
         <f>'Reach Propertise'!$F2</f>
         <v>8.3299999999999999E-2</v>
       </c>
-      <c r="AN2" s="75">
+      <c r="AN2" s="73">
         <v>0</v>
       </c>
-      <c r="AO2" s="93">
+      <c r="AO2" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>3</v>
       </c>
-      <c r="AP2" s="93">
+      <c r="AP2" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="69">
         <v>210</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="69">
         <v>1175</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="69">
         <v>7.03</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="69">
         <f>1.25*1000/3600</f>
         <v>0.34722222222222221</v>
       </c>
-      <c r="F3" s="71">
+      <c r="F3" s="69">
         <v>0.43330000000000002</v>
       </c>
-      <c r="G3" s="71">
+      <c r="G3" s="69">
         <f>5.15*1000/3600</f>
         <v>1.4305555555555556</v>
       </c>
-      <c r="H3" s="71">
+      <c r="H3" s="69">
         <v>7.03</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72">
+      <c r="I3" s="69"/>
+      <c r="J3" s="70">
         <f>51.81/10000</f>
         <v>5.1809999999999998E-3</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="70">
         <v>0.38552900000000001</v>
       </c>
-      <c r="L3" s="72">
+      <c r="L3" s="70">
         <v>17.581569999999999</v>
       </c>
-      <c r="M3" s="72">
+      <c r="M3" s="70">
         <v>0.22527449999999999</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74">
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="72">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>1.0371477250592951</v>
       </c>
-      <c r="R3" s="75">
+      <c r="R3" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.25845455674140388</v>
       </c>
-      <c r="S3" s="75">
+      <c r="S3" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.75326307151832184</v>
       </c>
-      <c r="T3" s="75">
+      <c r="T3" s="73">
         <v>1</v>
       </c>
-      <c r="U3" s="75">
+      <c r="U3" s="73">
         <v>0</v>
       </c>
-      <c r="V3" s="75">
+      <c r="V3" s="73">
         <v>0</v>
       </c>
-      <c r="W3" s="75">
+      <c r="W3" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>1.175</v>
       </c>
-      <c r="X3" s="90">
+      <c r="X3" s="88">
         <v>0.22527449999999999</v>
       </c>
-      <c r="Y3" s="76" t="str">
+      <c r="Y3" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z3" s="75">
+      <c r="Z3" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>965</v>
       </c>
-      <c r="AA3" s="75">
+      <c r="AA3" s="73">
         <f>(Table1[[#This Row],[Tp]]-AN3)*3600</f>
         <v>-2040.12</v>
       </c>
-      <c r="AB3" s="77">
+      <c r="AB3" s="75">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>311</v>
       </c>
-      <c r="AC3" s="77">
+      <c r="AC3" s="75">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>19.583333333333332</v>
       </c>
-      <c r="AD3" s="77">
+      <c r="AD3" s="75">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>3.5</v>
       </c>
-      <c r="AE3" s="75">
+      <c r="AE3" s="73">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AF3" s="76">
+      <c r="AF3" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.25565087658475677</v>
       </c>
-      <c r="AG3" s="76">
+      <c r="AG3" s="74">
         <f>(('Reach Propertise'!$F3-'Reach Propertise'!$R3)/'Reach Propertise'!$F3)</f>
         <v>0.40352052448325898</v>
       </c>
-      <c r="AH3" s="76">
+      <c r="AH3" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.81933273703513521</v>
       </c>
-      <c r="AI3" s="78">
+      <c r="AI3" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>45.603754840751279</v>
       </c>
-      <c r="AJ3" s="75">
+      <c r="AJ3" s="73">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>406.6923060318</v>
       </c>
-      <c r="AK3" s="75">
+      <c r="AK3" s="73">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>-0.56669999999999998</v>
       </c>
-      <c r="AL3" s="75">
+      <c r="AL3" s="73">
         <v>1</v>
       </c>
-      <c r="AM3" s="75">
+      <c r="AM3" s="73">
         <f>'Reach Propertise'!$F3</f>
         <v>0.43330000000000002</v>
       </c>
-      <c r="AN3" s="75">
+      <c r="AN3" s="73">
         <v>1</v>
       </c>
-      <c r="AO3" s="93">
+      <c r="AO3" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>19</v>
       </c>
-      <c r="AP3" s="93">
+      <c r="AP3" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="69">
         <v>1175</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="69">
         <v>2875</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="69">
         <v>7.24</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="69">
         <f>3.25*1000/3600</f>
         <v>0.90277777777777779</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="69">
         <v>1.1333</v>
       </c>
-      <c r="G4" s="71">
+      <c r="G4" s="69">
         <f>8.8*1000/3600</f>
         <v>2.4444444444444446</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="69">
         <v>7.24</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="81">
+      <c r="I4" s="69"/>
+      <c r="J4" s="79">
         <f>11.76/10000</f>
         <v>1.176E-3</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="79">
         <v>0.57269499999999995</v>
       </c>
-      <c r="L4" s="81">
+      <c r="L4" s="79">
         <v>16.589739999999999</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="79">
         <v>0.11053590000000001</v>
       </c>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="82">
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="80">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.76203618663908446</v>
       </c>
-      <c r="R4" s="75">
+      <c r="R4" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.61968477416398082</v>
       </c>
-      <c r="S4" s="75">
+      <c r="S4" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.70467758855652618</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="73">
         <v>1</v>
       </c>
-      <c r="U4" s="75">
+      <c r="U4" s="73">
         <v>0</v>
       </c>
-      <c r="V4" s="75">
+      <c r="V4" s="73">
         <v>0</v>
       </c>
-      <c r="W4" s="83">
+      <c r="W4" s="81">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>2.875</v>
       </c>
-      <c r="X4" s="91">
+      <c r="X4" s="89">
         <v>0.11053590000000001</v>
       </c>
-      <c r="Y4" s="76" t="str">
+      <c r="Y4" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z4" s="75">
+      <c r="Z4" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>1700</v>
       </c>
-      <c r="AA4" s="83">
+      <c r="AA4" s="81">
         <f>(Table1[[#This Row],[Tp]]-AN4)*3600</f>
         <v>4079.88</v>
       </c>
-      <c r="AB4" s="84">
+      <c r="AB4" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>815</v>
       </c>
-      <c r="AC4" s="84">
+      <c r="AC4" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>47.916666666666664</v>
       </c>
-      <c r="AD4" s="84">
+      <c r="AD4" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>19.583333333333332</v>
       </c>
-      <c r="AE4" s="75">
+      <c r="AE4" s="73">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF4" s="76">
+      <c r="AF4" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.31357994246451354</v>
       </c>
-      <c r="AG4" s="76">
+      <c r="AG4" s="74">
         <f>(('Reach Propertise'!$F4-'Reach Propertise'!$R4)/'Reach Propertise'!$F4)</f>
         <v>0.45320323465633033</v>
       </c>
-      <c r="AH4" s="76">
+      <c r="AH4" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.74649259238746246</v>
       </c>
-      <c r="AI4" s="78">
+      <c r="AI4" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>28.967845013488855</v>
       </c>
-      <c r="AJ4" s="83">
+      <c r="AJ4" s="81">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>570.05166895799994</v>
       </c>
-      <c r="AK4" s="83">
+      <c r="AK4" s="81">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>1.1333</v>
       </c>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75">
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73">
         <f>'Reach Propertise'!$F4</f>
         <v>1.1333</v>
       </c>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="93">
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>47</v>
       </c>
-      <c r="AP4" s="93">
+      <c r="AP4" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="69">
         <v>2875</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="69">
         <v>5275</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="69">
         <v>7.51</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="69">
         <f>3.75*1000/3600</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="69">
         <v>2.4666999999999999</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="69">
         <f>14.8*1000/3600</f>
         <v>4.1111111111111107</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="69">
         <v>7.51</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="81">
+      <c r="I5" s="69"/>
+      <c r="J5" s="79">
         <f>16.67/10000</f>
         <v>1.6670000000000001E-3</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K5" s="79">
         <v>0.62161200000000005</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="79">
         <v>17.83409</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="79">
         <v>5.8002699999999997E-2</v>
       </c>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="82">
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="80">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.67743806094400494</v>
       </c>
-      <c r="R5" s="75">
+      <c r="R5" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.98409980941677766</v>
       </c>
-      <c r="S5" s="75">
+      <c r="S5" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.59402350418688044</v>
       </c>
-      <c r="T5" s="75">
+      <c r="T5" s="73">
         <v>1</v>
       </c>
-      <c r="U5" s="75">
+      <c r="U5" s="73">
         <v>0</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="73">
         <v>0</v>
       </c>
-      <c r="W5" s="83">
+      <c r="W5" s="81">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>5.2750000000000004</v>
       </c>
-      <c r="X5" s="91">
+      <c r="X5" s="89">
         <v>5.8002699999999997E-2</v>
       </c>
-      <c r="Y5" s="76" t="str">
+      <c r="Y5" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z5" s="75">
+      <c r="Z5" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>2400</v>
       </c>
-      <c r="AA5" s="83">
+      <c r="AA5" s="81">
         <f>(Table1[[#This Row],[Tp]]-AN5)*3600</f>
         <v>8880.119999999999</v>
       </c>
-      <c r="AB5" s="84">
+      <c r="AB5" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>1776</v>
       </c>
-      <c r="AC5" s="84">
+      <c r="AC5" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>87.916666666666671</v>
       </c>
-      <c r="AD5" s="84">
+      <c r="AD5" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>47.916666666666664</v>
       </c>
-      <c r="AE5" s="75">
+      <c r="AE5" s="73">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF5" s="76">
+      <c r="AF5" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>5.5264182959893514E-2</v>
       </c>
-      <c r="AG5" s="76">
+      <c r="AG5" s="74">
         <f>(('Reach Propertise'!$F5-'Reach Propertise'!$R5)/'Reach Propertise'!$F5)</f>
         <v>0.60104600907415673</v>
       </c>
-      <c r="AH5" s="76">
+      <c r="AH5" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.7606243706824054</v>
       </c>
-      <c r="AI5" s="78">
+      <c r="AI5" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>28.690067115821442</v>
       </c>
-      <c r="AJ5" s="83">
+      <c r="AJ5" s="81">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>665.15306118480009</v>
       </c>
-      <c r="AK5" s="83">
+      <c r="AK5" s="81">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>2.4666999999999999</v>
       </c>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="75">
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73">
         <f>'Reach Propertise'!$F5</f>
         <v>2.4666999999999999</v>
       </c>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="93">
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>87</v>
       </c>
-      <c r="AP5" s="93">
+      <c r="AP5" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80" t="s">
+    <row r="6" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="69">
         <v>5275</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="69">
         <v>7775</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="69">
         <v>9.25</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="69">
         <f>10.5*1000/3600</f>
         <v>2.9166666666666665</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="69">
         <v>3.7332999999999998</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="69">
         <f>20*1000/3600</f>
         <v>5.5555555555555554</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="69">
         <v>9.25</v>
       </c>
-      <c r="I6" s="71"/>
-      <c r="J6" s="81">
+      <c r="I6" s="69"/>
+      <c r="J6" s="79">
         <f>24/10000</f>
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="79">
         <v>0.52793800000000002</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="79">
         <v>34.910490000000003</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="79">
         <v>3.4605400000000001E-2</v>
       </c>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="82">
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="80">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.50188343915290901</v>
       </c>
-      <c r="R6" s="75">
+      <c r="R6" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>1.3836767469684685</v>
       </c>
-      <c r="S6" s="75">
+      <c r="S6" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.57850218900763994</v>
       </c>
-      <c r="T6" s="75">
+      <c r="T6" s="73">
         <v>1</v>
       </c>
-      <c r="U6" s="75">
+      <c r="U6" s="73">
         <v>0</v>
       </c>
-      <c r="V6" s="75">
+      <c r="V6" s="73">
         <v>0</v>
       </c>
-      <c r="W6" s="83">
+      <c r="W6" s="81">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>7.7750000000000004</v>
       </c>
-      <c r="X6" s="91">
+      <c r="X6" s="89">
         <v>3.4605400000000001E-2</v>
       </c>
-      <c r="Y6" s="76" t="str">
+      <c r="Y6" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z6" s="75">
+      <c r="Z6" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>2500</v>
       </c>
-      <c r="AA6" s="83">
+      <c r="AA6" s="81">
         <f>(Table1[[#This Row],[Tp]]-AN6)*3600</f>
         <v>13439.88</v>
       </c>
-      <c r="AB6" s="84">
+      <c r="AB6" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>2687</v>
       </c>
-      <c r="AC6" s="84">
+      <c r="AC6" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>129.58333333333334</v>
       </c>
-      <c r="AD6" s="84">
+      <c r="AD6" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>87.916666666666671</v>
       </c>
-      <c r="AE6" s="75">
+      <c r="AE6" s="73">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF6" s="76">
+      <c r="AF6" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.52559654389652499</v>
       </c>
-      <c r="AG6" s="76">
+      <c r="AG6" s="74">
         <f>(('Reach Propertise'!$F6-'Reach Propertise'!$R6)/'Reach Propertise'!$F6)</f>
         <v>0.6293689907137201</v>
       </c>
-      <c r="AH6" s="76">
+      <c r="AH6" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.7509381855456756</v>
       </c>
-      <c r="AI6" s="78">
+      <c r="AI6" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>66.126117081930076</v>
       </c>
-      <c r="AJ6" s="83">
+      <c r="AJ6" s="81">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>1105.8344561772001</v>
       </c>
-      <c r="AK6" s="83">
+      <c r="AK6" s="81">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>3.7332999999999998</v>
       </c>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="75">
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73">
         <f>'Reach Propertise'!$F6</f>
         <v>3.7332999999999998</v>
       </c>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="93">
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>129</v>
       </c>
-      <c r="AP6" s="93">
+      <c r="AP6" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+    <row r="7" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="69">
         <v>7775</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="69">
         <v>10275</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="69">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="69">
         <f>15.1*1000/3600</f>
         <v>4.1944444444444446</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="69">
         <v>5.0332999999999997</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="69">
         <f>26*1000/3600</f>
         <v>7.2222222222222223</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="69">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="81">
+      <c r="I7" s="69"/>
+      <c r="J7" s="79">
         <f>44/10000</f>
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="79">
         <v>0.42355799999999999</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="79">
         <v>31.004169999999998</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="79">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="82">
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="80">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.74626500626555514</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>0.93056010748724483</v>
       </c>
-      <c r="S7" s="75">
+      <c r="S7" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.56705673547506941</v>
       </c>
-      <c r="T7" s="75">
+      <c r="T7" s="73">
         <v>1</v>
       </c>
-      <c r="U7" s="75">
+      <c r="U7" s="73">
         <v>0</v>
       </c>
-      <c r="V7" s="75">
+      <c r="V7" s="73">
         <v>0</v>
       </c>
-      <c r="W7" s="83">
+      <c r="W7" s="81">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>10.275</v>
       </c>
-      <c r="X7" s="91">
+      <c r="X7" s="89">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="Y7" s="76" t="str">
+      <c r="Y7" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z7" s="75">
+      <c r="Z7" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>2500</v>
       </c>
-      <c r="AA7" s="83">
+      <c r="AA7" s="81">
         <f>(Table1[[#This Row],[Tp]]-AN7)*3600</f>
         <v>18119.879999999997</v>
       </c>
-      <c r="AB7" s="84">
+      <c r="AB7" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>3623</v>
       </c>
-      <c r="AC7" s="84">
+      <c r="AC7" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>171.25</v>
       </c>
-      <c r="AD7" s="84">
+      <c r="AD7" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>129.58333333333334</v>
       </c>
-      <c r="AE7" s="75">
+      <c r="AE7" s="73">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF7" s="76">
+      <c r="AF7" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.7781446101354913</v>
       </c>
-      <c r="AG7" s="76">
+      <c r="AG7" s="74">
         <f>(('Reach Propertise'!$F7-'Reach Propertise'!$R7)/'Reach Propertise'!$F7)</f>
         <v>0.8151192840706406</v>
       </c>
-      <c r="AH7" s="76">
+      <c r="AH7" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.8711532158863815</v>
       </c>
-      <c r="AI7" s="78">
+      <c r="AI7" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>73.199349321698563</v>
       </c>
-      <c r="AJ7" s="83">
+      <c r="AJ7" s="81">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>787.92385421159997</v>
       </c>
-      <c r="AK7" s="83">
+      <c r="AK7" s="81">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>5.0332999999999997</v>
       </c>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="75">
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73">
         <f>'Reach Propertise'!$F7</f>
         <v>5.0332999999999997</v>
       </c>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="93">
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>171</v>
       </c>
-      <c r="AP7" s="93">
+      <c r="AP7" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80" t="s">
+    <row r="8" spans="1:42" s="77" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="69">
         <v>10275</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="69">
         <v>13775</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="69">
         <v>10</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="69">
         <f>19*1000/3600</f>
         <v>5.2777777777777777</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="69">
         <v>6.5369000000000002</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="69">
         <f>33.5*1000/3600</f>
         <v>9.3055555555555554</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="69">
         <v>10</v>
       </c>
-      <c r="I8" s="71"/>
-      <c r="J8" s="81">
+      <c r="I8" s="69"/>
+      <c r="J8" s="79">
         <f>25.71/10000</f>
         <v>2.5709999999999999E-3</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K8" s="79">
         <v>0.62438099999999996</v>
       </c>
-      <c r="L8" s="81">
+      <c r="L8" s="79">
         <v>23.586819999999999</v>
       </c>
-      <c r="M8" s="81">
+      <c r="M8" s="79">
         <v>2.0655E-2</v>
       </c>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="82">
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="80">
         <f>Table1[Q '[m3/sec']]/(Table1[depth '[meters']]*Table1[width '[meters']])</f>
         <v>0.67901743896945754</v>
       </c>
-      <c r="R8" s="75">
+      <c r="R8" s="73">
         <f>(Table1[[#This Row],[Reach Length '[meters']]]/(Table1[[#This Row],[Q '[m3/sec']]]/(Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]])))/3600</f>
         <v>1.4318074417908333</v>
       </c>
-      <c r="S8" s="75">
+      <c r="S8" s="73">
         <f>(Table1[[#This Row],[End Point distance  '[meters']]]/(3600*Table1[[#This Row],[Tp]]))</f>
         <v>0.58535221418239358</v>
       </c>
-      <c r="T8" s="75">
+      <c r="T8" s="73">
         <v>1</v>
       </c>
-      <c r="U8" s="75">
+      <c r="U8" s="73">
         <v>0</v>
       </c>
-      <c r="V8" s="75">
+      <c r="V8" s="73">
         <v>0</v>
       </c>
-      <c r="W8" s="83">
+      <c r="W8" s="81">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/1000</f>
         <v>13.775</v>
       </c>
-      <c r="X8" s="91">
+      <c r="X8" s="89">
         <v>2.0655E-2</v>
       </c>
-      <c r="Y8" s="76" t="str">
+      <c r="Y8" s="74" t="str">
         <f>IF(AVERAGE(Table1[[#This Row],[Error Ti]]&lt;=AVERAGE(Table1[[#This Row],[Error Tp]])),"use Ti","use Tp")</f>
         <v>use Ti</v>
       </c>
-      <c r="Z8" s="75">
+      <c r="Z8" s="73">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]-Table1[[#This Row],[Start point distance '[meters']]]</f>
         <v>3500</v>
       </c>
-      <c r="AA8" s="83">
+      <c r="AA8" s="81">
         <f>(Table1[[#This Row],[Tp]]-AN8)*3600</f>
         <v>23532.84</v>
       </c>
-      <c r="AB8" s="84">
+      <c r="AB8" s="82">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
         <v>4706</v>
       </c>
-      <c r="AC8" s="84">
+      <c r="AC8" s="82">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
         <v>229.58333333333334</v>
       </c>
-      <c r="AD8" s="84">
+      <c r="AD8" s="82">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
         <v>171.25</v>
       </c>
-      <c r="AE8" s="75">
+      <c r="AE8" s="73">
         <f>Delta_T__seconds</f>
         <v>5</v>
       </c>
-      <c r="AF8" s="76">
+      <c r="AF8" s="74">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
         <v>0.72871016892384211</v>
       </c>
-      <c r="AG8" s="76">
+      <c r="AG8" s="74">
         <f>(('Reach Propertise'!$F8-'Reach Propertise'!$R8)/'Reach Propertise'!$F8)</f>
         <v>0.78096537475090133</v>
       </c>
-      <c r="AH8" s="76">
+      <c r="AH8" s="74">
         <f>((Table1[[#This Row],[Tt]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Tt]])</f>
         <v>0.84613412565829849</v>
       </c>
-      <c r="AI8" s="78">
+      <c r="AI8" s="76">
         <f>Table1[[#This Row],[width '[meters']]]/Table1[[#This Row],[depth '[meters']]]</f>
         <v>37.776325672946484</v>
       </c>
-      <c r="AJ8" s="83">
+      <c r="AJ8" s="81">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
         <v>883.62973550519985</v>
       </c>
-      <c r="AK8" s="83">
+      <c r="AK8" s="81">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
         <v>6.5369000000000002</v>
       </c>
-      <c r="AL8" s="75"/>
-      <c r="AM8" s="75">
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73">
         <f>'Reach Propertise'!$F8</f>
         <v>6.5369000000000002</v>
       </c>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="93">
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="91">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
         <v>229</v>
       </c>
-      <c r="AP8" s="93">
+      <c r="AP8" s="91">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="X9" s="86"/>
-      <c r="Y9" s="87"/>
-    </row>
-    <row r="10" spans="1:42" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="X10" s="86"/>
-      <c r="Y10" s="87"/>
-    </row>
-    <row r="11" spans="1:42" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="X11" s="68"/>
-      <c r="Y11" s="69"/>
+    <row r="9" spans="1:42" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="84"/>
+      <c r="Y9" s="85"/>
+    </row>
+    <row r="10" spans="1:42" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="84"/>
+      <c r="Y10" s="85"/>
+    </row>
+    <row r="11" spans="1:42" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="66"/>
+      <c r="Y11" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8364,7 +8463,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8373,41 +8472,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8422,7 +8521,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8442,80 +8541,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="22" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="57" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="60">
+      <c r="A2" s="58">
         <v>1100</v>
       </c>
       <c r="B2" s="13">
         <v>1000</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="59">
         <v>0</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="58">
         <v>25</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I4" s="24"/>
@@ -8531,363 +8632,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="55.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="55.28515625" style="104" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="69.28515625" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-    </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="101"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="99" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q2" s="99" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="N2" s="92"/>
+      <c r="O2" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q2" s="109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="N3" s="95"/>
-      <c r="O3" s="99">
+      <c r="N3" s="92"/>
+      <c r="O3" s="93">
         <v>1</v>
       </c>
-      <c r="P3" s="101" t="s">
+      <c r="P3" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q3" s="108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H4">
         <v>25</v>
       </c>
-      <c r="N4" s="95"/>
-      <c r="O4" s="99">
+      <c r="N4" s="92"/>
+      <c r="O4" s="93">
         <v>2</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="Q4" s="99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q4" s="108" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="H5">
         <v>50</v>
       </c>
-      <c r="N5" s="95"/>
-      <c r="O5" s="99">
+      <c r="N5" s="92"/>
+      <c r="O5" s="93">
         <v>3</v>
       </c>
-      <c r="P5" s="101" t="s">
+      <c r="P5" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q5" s="108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
-      <c r="N6" s="95"/>
-      <c r="O6" s="99">
+      <c r="N6" s="92"/>
+      <c r="O6" s="93">
         <v>4</v>
       </c>
-      <c r="P6" s="101" t="s">
+      <c r="P6" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" s="99" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q6" s="108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H7">
         <v>150</v>
       </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="99">
+      <c r="N7" s="92"/>
+      <c r="O7" s="93">
         <v>5</v>
       </c>
-      <c r="P7" s="101" t="s">
+      <c r="P7" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="99"/>
-    </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q7" s="108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>67</v>
       </c>
       <c r="H8">
         <v>200</v>
       </c>
-      <c r="N8" s="95"/>
-      <c r="O8" s="99">
+      <c r="N8" s="92"/>
+      <c r="O8" s="93">
         <v>6</v>
       </c>
-      <c r="P8" s="101" t="s">
+      <c r="P8" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="99"/>
-    </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q8" s="108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
       <c r="H9">
         <v>250</v>
       </c>
-      <c r="N9" s="95"/>
-      <c r="O9" s="99">
+      <c r="N9" s="92"/>
+      <c r="O9" s="93">
         <v>7</v>
       </c>
-      <c r="P9" s="101" t="s">
+      <c r="P9" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="99"/>
-    </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q9" s="108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H10">
         <v>300</v>
       </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="99">
+      <c r="N10" s="92"/>
+      <c r="O10" s="93">
         <v>8</v>
       </c>
-      <c r="P10" s="101" t="s">
+      <c r="P10" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="Q10" s="99"/>
-    </row>
-    <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q10" s="108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H11">
         <v>350</v>
       </c>
-      <c r="N11" s="95"/>
-      <c r="O11" s="99">
+      <c r="N11" s="92"/>
+      <c r="O11" s="93">
         <v>9</v>
       </c>
-      <c r="P11" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" s="99"/>
-    </row>
-    <row r="12" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P11" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q11" s="108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H12">
         <v>400</v>
       </c>
-      <c r="N12" s="95"/>
-      <c r="O12" s="99">
+      <c r="N12" s="92"/>
+      <c r="O12" s="93">
         <v>10</v>
       </c>
-      <c r="P12" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q12" s="99"/>
-    </row>
-    <row r="13" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P12" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H13">
         <v>450</v>
       </c>
-      <c r="N13" s="95"/>
-      <c r="O13" s="99">
+      <c r="N13" s="92"/>
+      <c r="O13" s="93">
         <v>11</v>
       </c>
-      <c r="P13" s="101" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="99"/>
-    </row>
-    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P13" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" s="108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H14">
         <v>500</v>
       </c>
-      <c r="N14" s="95"/>
-      <c r="O14" s="99">
+      <c r="N14" s="92"/>
+      <c r="O14" s="93">
         <v>12</v>
       </c>
-      <c r="P14" s="101" t="s">
+      <c r="P14" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="Q14" s="99"/>
-    </row>
-    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q14" s="108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H15">
         <v>550</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="99">
+      <c r="N15" s="92"/>
+      <c r="O15" s="93">
         <v>13</v>
       </c>
-      <c r="P15" s="101" t="s">
+      <c r="P15" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="99"/>
-    </row>
-    <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q15" s="108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="H16">
         <v>600</v>
       </c>
-      <c r="N16" s="95"/>
-      <c r="O16" s="99">
+      <c r="N16" s="92"/>
+      <c r="O16" s="93">
         <v>14</v>
       </c>
-      <c r="P16" s="101" t="s">
+      <c r="P16" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="99"/>
-    </row>
-    <row r="17" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q16" s="108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H17">
         <v>650</v>
       </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="99">
+      <c r="N17" s="92"/>
+      <c r="O17" s="93">
         <v>15</v>
       </c>
-      <c r="P17" s="101" t="s">
+      <c r="P17" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="Q17" s="99"/>
-    </row>
-    <row r="18" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q17" s="108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H18">
         <v>700</v>
       </c>
-      <c r="N18" s="95"/>
-      <c r="O18" s="99">
+      <c r="N18" s="92"/>
+      <c r="O18" s="93">
         <v>16</v>
       </c>
-      <c r="P18" s="101" t="s">
+      <c r="P18" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="Q18" s="99"/>
-    </row>
-    <row r="19" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q18" s="108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H19">
         <v>750</v>
       </c>
-      <c r="N19" s="95"/>
-      <c r="O19" s="99">
+      <c r="N19" s="92"/>
+      <c r="O19" s="93">
         <v>17</v>
       </c>
-      <c r="P19" s="101" t="s">
+      <c r="P19" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="Q19" s="99"/>
-    </row>
-    <row r="20" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="Q19" s="108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H20">
         <v>800</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="99">
+      <c r="N20" s="92"/>
+      <c r="O20" s="93">
         <v>18</v>
       </c>
-      <c r="P20" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q20" s="99"/>
-    </row>
-    <row r="21" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P20" s="103" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H21">
         <v>900</v>
       </c>
-      <c r="N21" s="95"/>
-      <c r="O21" s="99">
+      <c r="N21" s="92"/>
+      <c r="O21" s="93">
         <v>19</v>
       </c>
-      <c r="P21" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="99"/>
-    </row>
-    <row r="22" spans="8:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="P21" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="8:17" x14ac:dyDescent="0.35">
       <c r="H22">
         <v>1000</v>
       </c>
-      <c r="N22" s="95"/>
-      <c r="O22" s="99">
+      <c r="N22" s="92"/>
+      <c r="O22" s="93">
         <v>20</v>
       </c>
       <c r="P22" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q22" s="99"/>
+        <v>110</v>
+      </c>
+      <c r="Q22" s="108"/>
     </row>
     <row r="23" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H23">
         <v>1250</v>
       </c>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="95"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="102"/>
     </row>
     <row r="24" spans="8:17" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>1500</v>
       </c>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="95"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="103"/>
     </row>
     <row r="25" spans="8:17" x14ac:dyDescent="0.25">
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="95"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="102"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8920,678 +9047,665 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="98"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="94" t="s">
+      <c r="E1" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="94" t="s">
+      <c r="H1" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="100" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="94" t="s">
+      <c r="J1" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="94" t="s">
+      <c r="L1" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="N1" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="O1" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="P1" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="Q1" s="94" t="s">
+      <c r="Q1" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="94" t="s">
+      <c r="S1" s="100" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.31322849740396147</v>
-      </c>
-      <c r="B2">
-        <v>125.15193324461855</v>
-      </c>
-      <c r="C2">
-        <v>32.534000789767745</v>
-      </c>
-      <c r="D2">
-        <v>80.510363569253073</v>
-      </c>
-      <c r="E2">
-        <v>84.445201678254378</v>
-      </c>
-      <c r="F2">
-        <v>68.144785225988443</v>
-      </c>
-      <c r="G2">
-        <v>75.162347305114608</v>
-      </c>
-      <c r="H2">
-        <v>55.094393303040285</v>
-      </c>
-      <c r="I2">
-        <v>30.141779807063049</v>
-      </c>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.26698111766955995</v>
-      </c>
-      <c r="B3">
-        <v>60.658913294062948</v>
-      </c>
-      <c r="C3">
-        <v>14.03880466851562</v>
-      </c>
-      <c r="D3">
-        <v>66.171267172942109</v>
-      </c>
-      <c r="E3">
-        <v>67.100953327475082</v>
-      </c>
-      <c r="F3">
-        <v>71.422716823584381</v>
-      </c>
-      <c r="G3">
-        <v>51.350858531838533</v>
-      </c>
-      <c r="H3">
-        <v>41.193908688760551</v>
-      </c>
-      <c r="I3">
-        <v>28.559961167532411</v>
-      </c>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.35933783316164253</v>
-      </c>
-      <c r="B4">
-        <v>28.82943512163212</v>
-      </c>
-      <c r="C4">
-        <v>18.624112795831529</v>
-      </c>
-      <c r="D4">
-        <v>42.686177861158548</v>
-      </c>
-      <c r="E4">
-        <v>45.07249448139391</v>
-      </c>
-      <c r="F4">
-        <v>38.235933854744474</v>
-      </c>
-      <c r="G4">
-        <v>36.16038878021115</v>
-      </c>
-      <c r="H4">
-        <v>35.704695292938929</v>
-      </c>
-      <c r="I4">
-        <v>26.143397143225286</v>
-      </c>
-      <c r="L4" s="25"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.34387364708602081</v>
-      </c>
-      <c r="B5">
-        <v>98.551636658107327</v>
-      </c>
-      <c r="C5">
-        <v>62.363966507937029</v>
-      </c>
-      <c r="D5">
-        <v>51.637142024217923</v>
-      </c>
-      <c r="E5">
-        <v>59.931806910039171</v>
-      </c>
-      <c r="F5">
-        <v>32.862485988793935</v>
-      </c>
-      <c r="G5">
-        <v>60.192913839597907</v>
-      </c>
-      <c r="H5">
-        <v>48.037824208571998</v>
-      </c>
-      <c r="I5">
-        <v>35.992128750688295</v>
-      </c>
-      <c r="P5" s="38">
-        <v>0.68029399999999995</v>
-      </c>
-      <c r="Q5" s="38">
-        <v>14.36734</v>
-      </c>
-      <c r="R5" s="38">
-        <v>53.357640000000004</v>
-      </c>
-      <c r="S5" s="38">
-        <v>24.927990000000001</v>
-      </c>
-      <c r="T5" s="38">
-        <v>27.509250000000002</v>
-      </c>
-      <c r="U5" s="38">
-        <v>15.301310000000001</v>
-      </c>
-      <c r="V5" s="38">
-        <v>27.438300000000002</v>
-      </c>
-      <c r="W5" s="38">
-        <v>35.873829999999998</v>
-      </c>
-      <c r="X5" s="38">
-        <v>21.671289999999999</v>
-      </c>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.33506683054146424</v>
-      </c>
-      <c r="B6">
-        <v>72.456712710657001</v>
-      </c>
-      <c r="C6">
-        <v>70.772994369132917</v>
-      </c>
-      <c r="D6">
-        <v>37.905255534156424</v>
-      </c>
-      <c r="E6">
-        <v>46.143278038649932</v>
-      </c>
-      <c r="F6">
-        <v>22.082793071761611</v>
-      </c>
-      <c r="G6">
-        <v>47.756269483526609</v>
-      </c>
-      <c r="H6">
-        <v>40.526455074376457</v>
-      </c>
-      <c r="I6">
-        <v>28.646357418215061</v>
-      </c>
-      <c r="P6" s="38">
-        <v>0.31323899999999999</v>
-      </c>
-      <c r="Q6" s="38">
-        <v>24.631589999999999</v>
-      </c>
-      <c r="R6" s="38">
-        <v>32.5351</v>
-      </c>
-      <c r="S6" s="38">
-        <v>25.22383</v>
-      </c>
-      <c r="T6" s="38">
-        <v>29.80743</v>
-      </c>
-      <c r="U6" s="38">
-        <v>16.616140000000001</v>
-      </c>
-      <c r="V6" s="38">
-        <v>27.21386</v>
-      </c>
-      <c r="W6" s="38">
-        <v>27.611440000000002</v>
-      </c>
-      <c r="X6" s="38">
-        <v>18.486730000000001</v>
-      </c>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.45280611092443795</v>
-      </c>
-      <c r="B7">
-        <v>31.592222527744863</v>
-      </c>
-      <c r="C7">
-        <v>35.458238134848095</v>
-      </c>
-      <c r="D7">
-        <v>38.979401258267899</v>
-      </c>
-      <c r="E7">
-        <v>44.142830992401279</v>
-      </c>
-      <c r="F7">
-        <v>28.267543914240417</v>
-      </c>
-      <c r="G7">
-        <v>38.554498424446066</v>
-      </c>
-      <c r="H7">
-        <v>39.689420926177711</v>
-      </c>
-      <c r="I7">
-        <v>29.408498052461969</v>
-      </c>
-      <c r="P7" s="38">
-        <v>0.26703500000000002</v>
-      </c>
-      <c r="Q7" s="38">
-        <v>11.671760000000001</v>
-      </c>
-      <c r="R7" s="38">
-        <v>14.04162</v>
-      </c>
-      <c r="S7" s="38">
-        <v>20.40061</v>
-      </c>
-      <c r="T7" s="38">
-        <v>21.494890000000002</v>
-      </c>
-      <c r="U7" s="38">
-        <v>16.362919999999999</v>
-      </c>
-      <c r="V7" s="38">
-        <v>18.332920000000001</v>
-      </c>
-      <c r="W7" s="38">
-        <v>20.449649999999998</v>
-      </c>
-      <c r="X7" s="38">
-        <v>17.398769999999999</v>
-      </c>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
+      <c r="X7" s="99"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P8" s="38">
-        <v>0.35930200000000001</v>
-      </c>
-      <c r="Q8" s="38">
-        <v>4.2178009999999997</v>
-      </c>
-      <c r="R8" s="38">
-        <v>18.622250000000001</v>
-      </c>
-      <c r="S8" s="38">
-        <v>10.8209</v>
-      </c>
-      <c r="T8" s="38">
-        <v>10.4069</v>
-      </c>
-      <c r="U8" s="38">
-        <v>7.1574400000000002</v>
-      </c>
-      <c r="V8" s="38">
-        <v>10.87673</v>
-      </c>
-      <c r="W8" s="38">
-        <v>15.77364</v>
-      </c>
-      <c r="X8" s="38">
-        <v>14.665559999999999</v>
-      </c>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="99"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P9" s="38">
-        <v>0.34387400000000001</v>
-      </c>
-      <c r="Q9" s="38">
-        <v>7.9991050000000001</v>
-      </c>
-      <c r="R9" s="38">
-        <v>62.363979999999998</v>
-      </c>
-      <c r="S9" s="38">
-        <v>8.5952439999999992</v>
-      </c>
-      <c r="T9" s="38">
-        <v>11.201169999999999</v>
-      </c>
-      <c r="U9" s="38">
-        <v>4.172085</v>
-      </c>
-      <c r="V9" s="38">
-        <v>12.52872</v>
-      </c>
-      <c r="W9" s="38">
-        <v>16.52225</v>
-      </c>
-      <c r="X9" s="38">
-        <v>16.912320000000001</v>
-      </c>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="99"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P10" s="38">
-        <v>0.335067</v>
-      </c>
-      <c r="Q10" s="38">
-        <v>3.5622069999999999</v>
-      </c>
-      <c r="R10" s="38">
-        <v>70.772999999999996</v>
-      </c>
-      <c r="S10" s="38">
-        <v>4.4109420000000004</v>
-      </c>
-      <c r="T10" s="38">
-        <v>5.702108</v>
-      </c>
-      <c r="U10" s="38">
-        <v>1.9560439999999999</v>
-      </c>
-      <c r="V10" s="38">
-        <v>7.2661790000000002</v>
-      </c>
-      <c r="W10" s="38">
-        <v>11.26384</v>
-      </c>
-      <c r="X10" s="38">
-        <v>11.576589999999999</v>
-      </c>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="99"/>
+      <c r="U10" s="99"/>
+      <c r="V10" s="99"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="99"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="P11" s="38">
-        <v>0.45284400000000002</v>
-      </c>
-      <c r="Q11" s="38">
-        <v>1.7726329999999999</v>
-      </c>
-      <c r="R11" s="38">
-        <v>35.461190000000002</v>
-      </c>
-      <c r="S11" s="38">
-        <v>4.984934</v>
-      </c>
-      <c r="T11" s="38">
-        <v>4.5795250000000003</v>
-      </c>
-      <c r="U11" s="38">
-        <v>2.542027</v>
-      </c>
-      <c r="V11" s="38">
-        <v>6.3714459999999997</v>
-      </c>
-      <c r="W11" s="38">
-        <v>11.6691</v>
-      </c>
-      <c r="X11" s="38">
-        <v>12.36679</v>
-      </c>
-    </row>
-    <row r="17" spans="13:20" x14ac:dyDescent="0.25">
-      <c r="M17" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="38">
-        <v>0.68029399999999995</v>
-      </c>
-      <c r="O17" s="38">
-        <v>0.31323899999999999</v>
-      </c>
-      <c r="P17" s="38">
-        <v>0.26703500000000002</v>
-      </c>
-      <c r="Q17" s="38">
-        <v>0.35930200000000001</v>
-      </c>
-      <c r="R17" s="38">
-        <v>0.34387400000000001</v>
-      </c>
-      <c r="S17" s="38">
-        <v>0.335067</v>
-      </c>
-      <c r="T17" s="38">
-        <v>0.45284400000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="13:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="M18" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" s="38">
-        <v>14.36734</v>
-      </c>
-      <c r="O18" s="38">
-        <v>24.631589999999999</v>
-      </c>
-      <c r="P18" s="38">
-        <v>11.671760000000001</v>
-      </c>
-      <c r="Q18" s="38">
-        <v>4.2178009999999997</v>
-      </c>
-      <c r="R18" s="38">
-        <v>7.9991050000000001</v>
-      </c>
-      <c r="S18" s="38">
-        <v>3.5622069999999999</v>
-      </c>
-      <c r="T18" s="38">
-        <v>1.7726329999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="13:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="M19" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="38">
-        <v>53.357640000000004</v>
-      </c>
-      <c r="O19" s="38">
-        <v>32.5351</v>
-      </c>
-      <c r="P19" s="38">
-        <v>14.04162</v>
-      </c>
-      <c r="Q19" s="38">
-        <v>18.622250000000001</v>
-      </c>
-      <c r="R19" s="38">
-        <v>62.363979999999998</v>
-      </c>
-      <c r="S19" s="38">
-        <v>70.772999999999996</v>
-      </c>
-      <c r="T19" s="38">
-        <v>35.461190000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="13:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="M20" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="N20" s="38">
-        <v>24.927990000000001</v>
-      </c>
-      <c r="O20" s="38">
-        <v>25.22383</v>
-      </c>
-      <c r="P20" s="38">
-        <v>20.40061</v>
-      </c>
-      <c r="Q20" s="38">
-        <v>10.8209</v>
-      </c>
-      <c r="R20" s="38">
-        <v>8.5952439999999992</v>
-      </c>
-      <c r="S20" s="38">
-        <v>4.4109420000000004</v>
-      </c>
-      <c r="T20" s="38">
-        <v>4.984934</v>
-      </c>
-    </row>
-    <row r="21" spans="13:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="M21" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="N21" s="38">
-        <v>27.509250000000002</v>
-      </c>
-      <c r="O21" s="38">
-        <v>29.80743</v>
-      </c>
-      <c r="P21" s="38">
-        <v>21.494890000000002</v>
-      </c>
-      <c r="Q21" s="38">
-        <v>10.4069</v>
-      </c>
-      <c r="R21" s="38">
-        <v>11.201169999999999</v>
-      </c>
-      <c r="S21" s="38">
-        <v>5.702108</v>
-      </c>
-      <c r="T21" s="38">
-        <v>4.5795250000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="13:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="M22" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="N22" s="38">
-        <v>15.301310000000001</v>
-      </c>
-      <c r="O22" s="38">
-        <v>16.616140000000001</v>
-      </c>
-      <c r="P22" s="38">
-        <v>16.362919999999999</v>
-      </c>
-      <c r="Q22" s="38">
-        <v>7.1574400000000002</v>
-      </c>
-      <c r="R22" s="38">
-        <v>4.172085</v>
-      </c>
-      <c r="S22" s="38">
-        <v>1.9560439999999999</v>
-      </c>
-      <c r="T22" s="38">
-        <v>2.542027</v>
-      </c>
-    </row>
-    <row r="23" spans="13:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="M23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="N23" s="38">
-        <v>27.438300000000002</v>
-      </c>
-      <c r="O23" s="38">
-        <v>27.21386</v>
-      </c>
-      <c r="P23" s="38">
-        <v>18.332920000000001</v>
-      </c>
-      <c r="Q23" s="38">
-        <v>10.87673</v>
-      </c>
-      <c r="R23" s="38">
-        <v>12.52872</v>
-      </c>
-      <c r="S23" s="38">
-        <v>7.2661790000000002</v>
-      </c>
-      <c r="T23" s="38">
-        <v>6.3714459999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="13:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="M24" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="38">
-        <v>35.873829999999998</v>
-      </c>
-      <c r="O24" s="38">
-        <v>27.611440000000002</v>
-      </c>
-      <c r="P24" s="38">
-        <v>20.449649999999998</v>
-      </c>
-      <c r="Q24" s="38">
-        <v>15.77364</v>
-      </c>
-      <c r="R24" s="38">
-        <v>16.52225</v>
-      </c>
-      <c r="S24" s="38">
-        <v>11.26384</v>
-      </c>
-      <c r="T24" s="38">
-        <v>11.6691</v>
-      </c>
-    </row>
-    <row r="25" spans="13:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="M25" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="N25" s="38">
-        <v>21.671289999999999</v>
-      </c>
-      <c r="O25" s="38">
-        <v>18.486730000000001</v>
-      </c>
-      <c r="P25" s="38">
-        <v>17.398769999999999</v>
-      </c>
-      <c r="Q25" s="38">
-        <v>14.665559999999999</v>
-      </c>
-      <c r="R25" s="38">
-        <v>16.912320000000001</v>
-      </c>
-      <c r="S25" s="38">
-        <v>11.576589999999999</v>
-      </c>
-      <c r="T25" s="38">
-        <v>12.36679</v>
-      </c>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="99"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="97"/>
+      <c r="T18" s="99"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="99"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="99"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="99"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="99"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+      <c r="S23" s="97"/>
+      <c r="T23" s="99"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="99"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="99"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="97"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9615,30 +9729,30 @@
       <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <v>16000</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="35">
         <v>27900</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <v>36500</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <v>49600</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>57100</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <v>60000</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="36">
         <v>76600</v>
       </c>
     </row>
     <row r="6" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>75</v>
       </c>
       <c r="L6">
@@ -9664,7 +9778,7 @@
       </c>
     </row>
     <row r="7" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="33" t="s">
         <v>61</v>
       </c>
       <c r="L7">
@@ -9690,7 +9804,7 @@
       </c>
     </row>
     <row r="8" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="33" t="s">
         <v>66</v>
       </c>
       <c r="L8">
@@ -9716,7 +9830,7 @@
       </c>
     </row>
     <row r="9" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="33" t="s">
         <v>62</v>
       </c>
       <c r="L9">
@@ -9742,7 +9856,7 @@
       </c>
     </row>
     <row r="10" spans="11:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>63</v>
       </c>
       <c r="L10">
@@ -9768,7 +9882,7 @@
       </c>
     </row>
     <row r="11" spans="11:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="33" t="s">
         <v>64</v>
       </c>
       <c r="L11">
@@ -9794,7 +9908,7 @@
       </c>
     </row>
     <row r="12" spans="11:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="33" t="s">
         <v>65</v>
       </c>
       <c r="L12">
@@ -9820,7 +9934,7 @@
       </c>
     </row>
     <row r="13" spans="11:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="34" t="s">
         <v>67</v>
       </c>
       <c r="L13">
@@ -9846,7 +9960,7 @@
       </c>
     </row>
     <row r="14" spans="11:18" x14ac:dyDescent="0.25">
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="33" t="s">
         <v>68</v>
       </c>
       <c r="L14">
@@ -9873,7 +9987,7 @@
     </row>
     <row r="17" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="26" t="s">
         <v>75</v>
       </c>
       <c r="L18">
@@ -9899,59 +10013,59 @@
       </c>
     </row>
     <row r="19" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="29">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="29">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="29">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="29">
         <v>6.4000000000000005E-4</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="29">
         <v>5.8E-4</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="29">
         <v>5.6999999999999998E-4</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="31">
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
     <row r="20" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <v>7.46E-2</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="29">
         <v>5.62E-2</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="29">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="29">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="29">
         <v>3.918E-2</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="Q20" s="29">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="31">
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="27" t="s">
         <v>79</v>
       </c>
       <c r="L21">
@@ -9978,274 +10092,274 @@
     </row>
     <row r="26" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="41">
         <v>16000</v>
       </c>
-      <c r="H27" s="43">
+      <c r="H27" s="41">
         <v>27900</v>
       </c>
-      <c r="I27" s="43">
+      <c r="I27" s="41">
         <v>36500</v>
       </c>
-      <c r="J27" s="43">
+      <c r="J27" s="41">
         <v>49600</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="41">
         <v>57100</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L27" s="41">
         <v>60000</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M27" s="41">
         <v>76600</v>
       </c>
     </row>
     <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="44"/>
-      <c r="G28" s="103" t="s">
+      <c r="F28" s="42"/>
+      <c r="G28" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="105"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="96"/>
     </row>
     <row r="29" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="44">
         <v>1.146E-2</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="44">
         <v>8.4089999999999998E-3</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="44">
         <v>7.2880000000000002E-3</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="44">
         <v>5.7679999999999997E-3</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="44">
         <v>4.3639999999999998E-3</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="44">
         <v>3.885E-3</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="44">
         <v>3.1909999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="44">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="44">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="44">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="44">
         <v>4.6210000000000001E-2</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="44">
         <v>4.3380000000000002E-2</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="44">
         <v>4.2430000000000002E-2</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="44">
         <v>1.941E-3</v>
       </c>
     </row>
     <row r="31" spans="6:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="44">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="44">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="44">
         <v>2.5790000000000001E-3</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="44">
         <v>2.2200000000000002E-3</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="44">
         <v>2E-3</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="44">
         <v>1.9980000000000002E-3</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="44">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="6:18" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="44">
         <v>3.4130000000000001E-2</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="44">
         <v>2.5899999999999999E-2</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="44">
         <v>2.2710000000000001E-2</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="44">
         <v>1.95E-2</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="44">
         <v>1.8180000000000002E-2</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="44">
         <v>1.7739999999999999E-2</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="44">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="44">
         <v>3.7019999999999997E-2</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="44">
         <v>2.818E-2</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="44">
         <v>2.4639999999999999E-2</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="44">
         <v>2.12E-2</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="44">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="44">
         <v>1.9269999999999999E-2</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="44">
         <v>6.3099999999999996E-3</v>
       </c>
     </row>
     <row r="34" spans="6:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="44">
         <v>5.4809999999999998E-2</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="44">
         <v>4.2220000000000001E-2</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="44">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="44">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="44">
         <v>2.9940000000000001E-2</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="44">
         <v>2.92E-2</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="44">
         <v>4.5199999999999997E-3</v>
       </c>
     </row>
     <row r="35" spans="6:13" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="45" t="s">
+      <c r="F35" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="44">
         <v>2.726E-2</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="44">
         <v>2.06E-2</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="44">
         <v>1.8069999999999999E-2</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="44">
         <v>1.5509999999999999E-2</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="44">
         <v>1.447E-2</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="44">
         <v>1.41E-2</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="44">
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="36" spans="6:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="44">
         <v>1.4800000000000001E-2</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="44">
         <v>1.12E-2</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="44">
         <v>9.7900000000000001E-3</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="44">
         <v>8.3899999999999999E-3</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="44">
         <v>7.8189999999999996E-3</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="44">
         <v>7.62E-3</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="44">
         <v>4.2069999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="6:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F37" s="45" t="s">
+      <c r="F37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="45">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="45">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="I37" s="47">
+      <c r="I37" s="45">
         <v>7.3600000000000002E-3</v>
       </c>
-      <c r="J37" s="47">
+      <c r="J37" s="45">
         <v>6.3E-3</v>
       </c>
-      <c r="K37" s="47">
+      <c r="K37" s="45">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="L37" s="47">
+      <c r="L37" s="45">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="45">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10535,138 +10649,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>1.051031378</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="29">
         <v>0.25</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="29">
         <v>4</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>0.53800000000000003</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>1.4670000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>0.225274538</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>1.0620000000000001</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>0.110535912</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>0.36499999999999999</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>5.8002663000000003E-2</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>0.23100000000000001</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>1.54E-2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>3.4605404999999999E-2</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>0.16900000000000001</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>2.0655E-2</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>0.124</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
@@ -10674,30 +10788,30 @@
       <c r="F10" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>210</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>1175</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>2875</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>5275</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <v>7775</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <v>10275</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="36">
         <v>13775</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>75</v>
       </c>
       <c r="G11">
@@ -10723,7 +10837,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G12">
@@ -10749,7 +10863,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="33" t="s">
         <v>66</v>
       </c>
       <c r="G13">
@@ -10773,10 +10887,10 @@
       <c r="M13">
         <v>1.0460000000000001E-2</v>
       </c>
-      <c r="Q13" s="39"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>62</v>
       </c>
       <c r="G14">
@@ -10800,10 +10914,10 @@
       <c r="M14">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="Q14" s="40"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>63</v>
       </c>
       <c r="G15">
@@ -10827,10 +10941,10 @@
       <c r="M15">
         <v>9.4E-2</v>
       </c>
-      <c r="Q15" s="40"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="33" t="s">
         <v>64</v>
       </c>
       <c r="G16">
@@ -10854,10 +10968,10 @@
       <c r="M16">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q16" s="40"/>
+      <c r="Q16" s="38"/>
     </row>
     <row r="17" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>65</v>
       </c>
       <c r="G17">
@@ -10881,10 +10995,10 @@
       <c r="M17">
         <v>6.3E-2</v>
       </c>
-      <c r="Q17" s="40"/>
+      <c r="Q17" s="38"/>
     </row>
     <row r="18" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="34" t="s">
         <v>67</v>
       </c>
       <c r="G18">
@@ -10908,163 +11022,163 @@
       <c r="M18">
         <v>2.87E-2</v>
       </c>
-      <c r="Q18" s="40"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="6:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="37">
         <v>1.4670000000000001</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="38">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="38">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="38">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="38">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="38">
         <v>0.03</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="39">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="22" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="28">
         <v>1.051031378</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="28">
         <v>0.225274538</v>
       </c>
-      <c r="I23" s="29">
+      <c r="I23" s="28">
         <v>0.110535912</v>
       </c>
-      <c r="J23" s="29">
+      <c r="J23" s="28">
         <v>5.8002663000000003E-2</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="28">
         <v>3.4605404999999999E-2</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="28">
         <v>2.1080000000000002E-2</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <v>2.0655E-2</v>
       </c>
     </row>
     <row r="24" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>0.25</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="29">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="29">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="29">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="29">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="31">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>4</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="29">
         <v>1.0620000000000001</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="29">
         <v>0.36499999999999999</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <v>0.23100000000000001</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="29">
         <v>0.16900000000000001</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="31">
         <v>0.124</v>
       </c>
     </row>
     <row r="26" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <v>0.53800000000000003</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <v>1.54E-2</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="31">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="6:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>1.4670000000000001</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="29">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="29">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="29">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="29">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="29">
         <v>0.03</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="31">
         <v>2.6700000000000002E-2</v>
       </c>
     </row>
